--- a/table_best_models____spi-6__test.xlsx
+++ b/table_best_models____spi-6__test.xlsx
@@ -432,13 +432,13 @@
         <v>1.493535871854287</v>
       </c>
       <c r="D2">
-        <v>1.516702155223576</v>
+        <v>1.516702155228137</v>
       </c>
       <c r="E2">
-        <v>1.564949850765695</v>
+        <v>1.564949850604699</v>
       </c>
       <c r="F2">
-        <v>1.507727846540589</v>
+        <v>1.507727846669393</v>
       </c>
       <c r="G2">
         <v>1.516702155360188</v>
@@ -455,13 +455,13 @@
         <v>1.121603282575556</v>
       </c>
       <c r="D3">
-        <v>1.148796427789717</v>
+        <v>1.148796427795326</v>
       </c>
       <c r="E3">
-        <v>1.155537103288058</v>
+        <v>1.155537103170559</v>
       </c>
       <c r="F3">
-        <v>1.143591706190293</v>
+        <v>1.143591704277442</v>
       </c>
       <c r="G3">
         <v>1.148796427957691</v>
@@ -478,16 +478,16 @@
         <v>0.3447782253104562</v>
       </c>
       <c r="D4">
-        <v>0.3694638005040948</v>
+        <v>0.3694638005058919</v>
       </c>
       <c r="E4">
-        <v>0.3915185884627899</v>
+        <v>0.3915185884153385</v>
       </c>
       <c r="F4">
-        <v>0.3695882266741776</v>
+        <v>0.3695882254246275</v>
       </c>
       <c r="G4">
-        <v>0.3694638005579261</v>
+        <v>0.3694638005579262</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -501,16 +501,16 @@
         <v>0.5499500639004974</v>
       </c>
       <c r="D5">
-        <v>0.5504952453091888</v>
+        <v>0.5504952453091458</v>
       </c>
       <c r="E5">
-        <v>0.597536108792824</v>
+        <v>0.5975361087281844</v>
       </c>
       <c r="F5">
-        <v>0.552645406155156</v>
+        <v>0.5526454054199619</v>
       </c>
       <c r="G5">
-        <v>0.5504952453079036</v>
+        <v>0.5504952453079037</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -524,13 +524,13 @@
         <v>-0.6082392106551693</v>
       </c>
       <c r="D6">
-        <v>-0.6211267707512276</v>
+        <v>-0.6211267707602536</v>
       </c>
       <c r="E6">
-        <v>-0.5274773373709041</v>
+        <v>-0.527477337327859</v>
       </c>
       <c r="F6">
-        <v>-0.6138927380300496</v>
+        <v>-0.6138927345451312</v>
       </c>
       <c r="G6">
         <v>-0.6211267710215738</v>
@@ -541,22 +541,22 @@
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.6507814671168104</v>
+        <v>-0.6507814671168103</v>
       </c>
       <c r="C7">
-        <v>-0.6896853529535398</v>
+        <v>-0.6896853529535399</v>
       </c>
       <c r="D7">
-        <v>-0.6694162348307411</v>
+        <v>-0.6694162348402859</v>
       </c>
       <c r="E7">
-        <v>-0.5736351738891592</v>
+        <v>-0.5736351738362417</v>
       </c>
       <c r="F7">
-        <v>-0.6635085234022362</v>
+        <v>-0.6635085190974659</v>
       </c>
       <c r="G7">
-        <v>-0.6694162351166282</v>
+        <v>-0.669416235116628</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -564,22 +564,22 @@
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.3525027105495284</v>
+        <v>0.3525027105495286</v>
       </c>
       <c r="C8">
         <v>0.3387623656718941</v>
       </c>
       <c r="D8">
-        <v>0.3342437126463974</v>
+        <v>0.33424371264301</v>
       </c>
       <c r="E8">
-        <v>0.4179658968472296</v>
+        <v>0.4179658967952902</v>
       </c>
       <c r="F8">
-        <v>0.3386378176729828</v>
+        <v>0.3386378183839903</v>
       </c>
       <c r="G8">
-        <v>0.3342437125449363</v>
+        <v>0.3342437125449362</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -587,22 +587,22 @@
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.1404755715957999</v>
+        <v>0.1404755715958</v>
       </c>
       <c r="C9">
-        <v>0.1390235968283251</v>
+        <v>0.139023596828325</v>
       </c>
       <c r="D9">
-        <v>0.1347901944820665</v>
+        <v>0.1347901944746752</v>
       </c>
       <c r="E9">
-        <v>0.2632334499029583</v>
+        <v>0.2632334498670238</v>
       </c>
       <c r="F9">
-        <v>0.1419478174648562</v>
+        <v>0.1419478198801404</v>
       </c>
       <c r="G9">
-        <v>0.1347901942606846</v>
+        <v>0.1347901942606845</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -610,22 +610,22 @@
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.01107719331568987</v>
+        <v>0.01107719331568996</v>
       </c>
       <c r="C10">
-        <v>0.006781865638772769</v>
+        <v>0.006781865638772732</v>
       </c>
       <c r="D10">
-        <v>0.007978645027357595</v>
+        <v>0.00797864502040245</v>
       </c>
       <c r="E10">
-        <v>0.1190177541700631</v>
+        <v>0.1190177541505813</v>
       </c>
       <c r="F10">
-        <v>0.0146811381737487</v>
+        <v>0.01468114045831997</v>
       </c>
       <c r="G10">
-        <v>0.007978644819038094</v>
+        <v>0.007978644819038108</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -639,16 +639,16 @@
         <v>-0.3000067509124801</v>
       </c>
       <c r="D11">
-        <v>-0.2992121253458256</v>
+        <v>-0.2992121253521106</v>
       </c>
       <c r="E11">
-        <v>-0.2213074703734523</v>
+        <v>-0.2213074703610973</v>
       </c>
       <c r="F11">
-        <v>-0.2931061543322575</v>
+        <v>-0.2931061522855191</v>
       </c>
       <c r="G11">
-        <v>-0.2992121255340721</v>
+        <v>-0.2992121255340722</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -662,16 +662,16 @@
         <v>0.2379508531517658</v>
       </c>
       <c r="D12">
-        <v>0.2384510751002795</v>
+        <v>0.2384510750986476</v>
       </c>
       <c r="E12">
-        <v>0.2897165111889651</v>
+        <v>0.2897165111484691</v>
       </c>
       <c r="F12">
-        <v>0.2415147552985036</v>
+        <v>0.2415147553043837</v>
       </c>
       <c r="G12">
-        <v>0.2384510750513997</v>
+        <v>0.2384510750513996</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,22 +679,22 @@
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>-0.01835459106637321</v>
+        <v>-0.01835459106637314</v>
       </c>
       <c r="C13">
-        <v>-0.0235916397629971</v>
+        <v>-0.02359163976299713</v>
       </c>
       <c r="D13">
-        <v>-0.02211841758568503</v>
+        <v>-0.02211841758858413</v>
       </c>
       <c r="E13">
-        <v>0.02536501923854486</v>
+        <v>0.02536501922434924</v>
       </c>
       <c r="F13">
-        <v>-0.01821006228918973</v>
+        <v>-0.01821006173336107</v>
       </c>
       <c r="G13">
-        <v>-0.02211841767252118</v>
+        <v>-0.02211841767252128</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -702,19 +702,19 @@
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.056542596886507</v>
+        <v>-1.056542596886506</v>
       </c>
       <c r="C14">
         <v>-1.081747840565764</v>
       </c>
       <c r="D14">
-        <v>-1.095705627387217</v>
+        <v>-1.095705627396015</v>
       </c>
       <c r="E14">
-        <v>-1.018088828722791</v>
+        <v>-1.018088828641718</v>
       </c>
       <c r="F14">
-        <v>-1.090725403823579</v>
+        <v>-1.090725399690693</v>
       </c>
       <c r="G14">
         <v>-1.095705627650736</v>
@@ -725,22 +725,22 @@
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.04019450317134276</v>
+        <v>0.04019450317134282</v>
       </c>
       <c r="C15">
-        <v>0.0299100230517013</v>
+        <v>0.02991002305170126</v>
       </c>
       <c r="D15">
-        <v>0.03235561107924447</v>
+        <v>0.03235561107506157</v>
       </c>
       <c r="E15">
-        <v>0.1048878203246055</v>
+        <v>0.1048878203043993</v>
       </c>
       <c r="F15">
-        <v>0.03710022574895372</v>
+        <v>0.03710022686916348</v>
       </c>
       <c r="G15">
-        <v>0.03235561095395786</v>
+        <v>0.03235561095395782</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -754,16 +754,16 @@
         <v>0.4399996130268201</v>
       </c>
       <c r="D16">
-        <v>0.4483788459158705</v>
+        <v>0.4483788459117343</v>
       </c>
       <c r="E16">
-        <v>0.5524293978497925</v>
+        <v>0.5524293977833663</v>
       </c>
       <c r="F16">
-        <v>0.4515573778705858</v>
+        <v>0.4515573795158676</v>
       </c>
       <c r="G16">
-        <v>0.4483788457919805</v>
+        <v>0.4483788457919803</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -777,16 +777,16 @@
         <v>0.3544564327259181</v>
       </c>
       <c r="D17">
-        <v>0.3529158141928649</v>
+        <v>0.3529158141877619</v>
       </c>
       <c r="E17">
-        <v>0.4595216317793198</v>
+        <v>0.4595216317290883</v>
       </c>
       <c r="F17">
-        <v>0.3574532518133637</v>
+        <v>0.3574532536248114</v>
       </c>
       <c r="G17">
-        <v>0.3529158140400201</v>
+        <v>0.3529158140400203</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -794,22 +794,22 @@
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.5209464615914834</v>
+        <v>-0.5209464615914836</v>
       </c>
       <c r="C18">
         <v>-0.5604111733622981</v>
       </c>
       <c r="D18">
-        <v>-0.5560519154073792</v>
+        <v>-0.5560519154182924</v>
       </c>
       <c r="E18">
-        <v>-0.4320613481519988</v>
+        <v>-0.4320613481101228</v>
       </c>
       <c r="F18">
-        <v>-0.5460942345564075</v>
+        <v>-0.5460942307726342</v>
       </c>
       <c r="G18">
-        <v>-0.5560519157342446</v>
+        <v>-0.5560519157342444</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -817,22 +817,22 @@
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.07419109071046133</v>
+        <v>-0.07419109071046141</v>
       </c>
       <c r="C19">
         <v>-0.1093441211982303</v>
       </c>
       <c r="D19">
-        <v>-0.1037446085597146</v>
+        <v>-0.1037446085666946</v>
       </c>
       <c r="E19">
-        <v>-0.004692513130915447</v>
+        <v>-0.004692513132042019</v>
       </c>
       <c r="F19">
-        <v>-0.09697107539087574</v>
+        <v>-0.09697107311447944</v>
       </c>
       <c r="G19">
-        <v>-0.1037446087687774</v>
+        <v>-0.1037446087687773</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -840,22 +840,22 @@
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.2132496583038352</v>
+        <v>-0.2132496583038351</v>
       </c>
       <c r="C20">
         <v>-0.2202566755288401</v>
       </c>
       <c r="D20">
-        <v>-0.212286954399085</v>
+        <v>-0.212286954405368</v>
       </c>
       <c r="E20">
-        <v>-0.1302172435309159</v>
+        <v>-0.1302172435220105</v>
       </c>
       <c r="F20">
-        <v>-0.2062040702178291</v>
+        <v>-0.2062040681637761</v>
       </c>
       <c r="G20">
-        <v>-0.2122869545872725</v>
+        <v>-0.2122869545872724</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -869,13 +869,13 @@
         <v>-1.387553277518713</v>
       </c>
       <c r="D21">
-        <v>-1.41349014914269</v>
+        <v>-1.413490149154665</v>
       </c>
       <c r="E21">
-        <v>-1.302654242725221</v>
+        <v>-1.302654242617275</v>
       </c>
       <c r="F21">
-        <v>-1.407537414029703</v>
+        <v>-1.407537408110368</v>
       </c>
       <c r="G21">
         <v>-1.413490149501374</v>
@@ -892,13 +892,13 @@
         <v>-1.879940830023662</v>
       </c>
       <c r="D22">
-        <v>-1.879556964657639</v>
+        <v>-1.879556964672188</v>
       </c>
       <c r="E22">
-        <v>-1.774509605330151</v>
+        <v>-1.774509605169639</v>
       </c>
       <c r="F22">
-        <v>-1.875805011727537</v>
+        <v>-1.875805003299412</v>
       </c>
       <c r="G22">
         <v>-1.879556965093402</v>
@@ -915,13 +915,13 @@
         <v>-2.265865519906338</v>
       </c>
       <c r="D23">
-        <v>-2.269473877582806</v>
+        <v>-2.269473877601049</v>
       </c>
       <c r="E23">
-        <v>-2.127622741269569</v>
+        <v>-2.127622741080561</v>
       </c>
       <c r="F23">
-        <v>-2.268067722583086</v>
+        <v>-2.268067710843358</v>
       </c>
       <c r="G23">
         <v>-2.269473878129201</v>
@@ -938,16 +938,16 @@
         <v>-1.364527744466825</v>
       </c>
       <c r="D24">
-        <v>-1.318541558046488</v>
+        <v>-1.318541558060269</v>
       </c>
       <c r="E24">
-        <v>-1.216771290111159</v>
+        <v>-1.216771289991243</v>
       </c>
       <c r="F24">
-        <v>-1.313023843979813</v>
+        <v>-1.313023836694064</v>
       </c>
       <c r="G24">
-        <v>-1.318541558459269</v>
+        <v>-1.318541558459268</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -961,13 +961,13 @@
         <v>-1.977521634549571</v>
       </c>
       <c r="D25">
-        <v>-1.946511454697214</v>
+        <v>-1.946511454713837</v>
       </c>
       <c r="E25">
-        <v>-1.788432855664024</v>
+        <v>-1.788432855515553</v>
       </c>
       <c r="F25">
-        <v>-1.943883010232344</v>
+        <v>-1.943883000014115</v>
       </c>
       <c r="G25">
         <v>-1.946511455195074</v>
@@ -984,13 +984,13 @@
         <v>-1.545364328194704</v>
       </c>
       <c r="D26">
-        <v>-1.503298142374271</v>
+        <v>-1.503298142389604</v>
       </c>
       <c r="E26">
-        <v>-1.392865982891692</v>
+        <v>-1.392865982752522</v>
       </c>
       <c r="F26">
-        <v>-1.497608771893271</v>
+        <v>-1.497608763627635</v>
       </c>
       <c r="G26">
         <v>-1.503298142833513</v>
@@ -1007,16 +1007,16 @@
         <v>-1.772283851343945</v>
       </c>
       <c r="D27">
-        <v>-1.718627071384683</v>
+        <v>-1.718627071397784</v>
       </c>
       <c r="E27">
-        <v>-1.627464920641356</v>
+        <v>-1.627464920492307</v>
       </c>
       <c r="F27">
-        <v>-1.716857017632738</v>
+        <v>-1.716857009471103</v>
       </c>
       <c r="G27">
-        <v>-1.718627071777104</v>
+        <v>-1.718627071777103</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1030,13 +1030,13 @@
         <v>-1.335313889419356</v>
       </c>
       <c r="D28">
-        <v>-1.298943040859384</v>
+        <v>-1.298943040867929</v>
       </c>
       <c r="E28">
-        <v>-1.248704126330582</v>
+        <v>-1.248704126220479</v>
       </c>
       <c r="F28">
-        <v>-1.297970872894649</v>
+        <v>-1.297970867506873</v>
       </c>
       <c r="G28">
         <v>-1.29894304111533</v>
@@ -1047,22 +1047,22 @@
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>-0.01946395191569578</v>
+        <v>-0.01946395191569573</v>
       </c>
       <c r="C29">
-        <v>-0.02282735328476215</v>
+        <v>-0.02282735328476219</v>
       </c>
       <c r="D29">
-        <v>-0.02203107757920005</v>
+        <v>-0.02203107758161368</v>
       </c>
       <c r="E29">
-        <v>0.01709140316667624</v>
+        <v>0.01709140315561335</v>
       </c>
       <c r="F29">
-        <v>-0.01834020222094796</v>
+        <v>-0.01834020191340523</v>
       </c>
       <c r="G29">
-        <v>-0.02203107765149417</v>
+        <v>-0.02203107765149423</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1076,16 +1076,16 @@
         <v>0.500669473283668</v>
       </c>
       <c r="D30">
-        <v>0.504533888654618</v>
+        <v>0.5045338886552546</v>
       </c>
       <c r="E30">
-        <v>0.5445470676585067</v>
+        <v>0.5445470675891175</v>
       </c>
       <c r="F30">
-        <v>0.5051317275759002</v>
+        <v>0.5051317269359193</v>
       </c>
       <c r="G30">
-        <v>0.5045338886736782</v>
+        <v>0.504533888673678</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1093,22 +1093,22 @@
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.2224382189839597</v>
+        <v>0.2224382189839598</v>
       </c>
       <c r="C31">
         <v>0.2149546686359524</v>
       </c>
       <c r="D31">
-        <v>0.2135717447117229</v>
+        <v>0.2135717447112594</v>
       </c>
       <c r="E31">
-        <v>0.2438895408963677</v>
+        <v>0.243889540859022</v>
       </c>
       <c r="F31">
-        <v>0.2158783237773467</v>
+        <v>0.2158783232681426</v>
       </c>
       <c r="G31">
-        <v>0.2135717446978393</v>
+        <v>0.2135717446978391</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1122,16 +1122,16 @@
         <v>-0.1548331668896255</v>
       </c>
       <c r="D32">
-        <v>-0.1600356506506949</v>
+        <v>-0.160035650651772</v>
       </c>
       <c r="E32">
-        <v>-0.1384760051961306</v>
+        <v>-0.1384760051998775</v>
       </c>
       <c r="F32">
-        <v>-0.1572198664667784</v>
+        <v>-0.157219866745196</v>
       </c>
       <c r="G32">
-        <v>-0.1600356506829573</v>
+        <v>-0.1600356506829574</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1139,22 +1139,22 @@
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.2967749697580531</v>
+        <v>0.2967749697580532</v>
       </c>
       <c r="C33">
-        <v>0.2737616889324076</v>
+        <v>0.2737616889324075</v>
       </c>
       <c r="D33">
-        <v>0.2748657944672137</v>
+        <v>0.2748657944655498</v>
       </c>
       <c r="E33">
-        <v>0.3295892549705619</v>
+        <v>0.3295892549257095</v>
       </c>
       <c r="F33">
-        <v>0.2776965993229083</v>
+        <v>0.2776965994329829</v>
       </c>
       <c r="G33">
-        <v>0.2748657944173754</v>
+        <v>0.2748657944173752</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1168,16 +1168,16 @@
         <v>0.1961347033589012</v>
       </c>
       <c r="D34">
-        <v>0.1985483732943905</v>
+        <v>0.1985483732909573</v>
       </c>
       <c r="E34">
-        <v>0.2726936845202401</v>
+        <v>0.272693684483006</v>
       </c>
       <c r="F34">
-        <v>0.2024790104113927</v>
+        <v>0.2024790113178233</v>
       </c>
       <c r="G34">
-        <v>0.1985483731915591</v>
+        <v>0.198548373191559</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1191,13 +1191,13 @@
         <v>-0.5696893431281922</v>
       </c>
       <c r="D35">
-        <v>-0.5662676921919548</v>
+        <v>-0.5662676921997466</v>
       </c>
       <c r="E35">
-        <v>-0.4897066009051385</v>
+        <v>-0.4897066008620862</v>
       </c>
       <c r="F35">
-        <v>-0.5591274041460521</v>
+        <v>-0.5591274014556962</v>
       </c>
       <c r="G35">
         <v>-0.5662676924253318</v>
@@ -1214,13 +1214,13 @@
         <v>-1.270653006467221</v>
       </c>
       <c r="D36">
-        <v>-1.30578570936844</v>
+        <v>-1.305785709379259</v>
       </c>
       <c r="E36">
-        <v>-1.20784920398453</v>
+        <v>-1.207849203887282</v>
       </c>
       <c r="F36">
-        <v>-1.298981731512541</v>
+        <v>-1.298981726671642</v>
       </c>
       <c r="G36">
         <v>-1.305785709692497</v>
@@ -1237,16 +1237,16 @@
         <v>-1.130177162573856</v>
       </c>
       <c r="D37">
-        <v>-1.156831166913773</v>
+        <v>-1.156831166924135</v>
       </c>
       <c r="E37">
-        <v>-1.040678431971605</v>
+        <v>-1.040678431896193</v>
       </c>
       <c r="F37">
-        <v>-1.149446578708553</v>
+        <v>-1.149446574380641</v>
       </c>
       <c r="G37">
-        <v>-1.156831167224136</v>
+        <v>-1.156831167224135</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1254,22 +1254,22 @@
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.8876635240351209</v>
+        <v>-0.8876635240351211</v>
       </c>
       <c r="C38">
         <v>-0.8896060356429848</v>
       </c>
       <c r="D38">
-        <v>-0.8963883286874353</v>
+        <v>-0.8963883286970923</v>
       </c>
       <c r="E38">
-        <v>-0.8317014653055431</v>
+        <v>-0.8317014652225474</v>
       </c>
       <c r="F38">
-        <v>-0.8887761830932945</v>
+        <v>-0.8887761793192706</v>
       </c>
       <c r="G38">
-        <v>-0.8963883289766785</v>
+        <v>-0.8963883289766783</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1280,16 +1280,16 @@
         <v>-0.5394951643555804</v>
       </c>
       <c r="C39">
-        <v>-0.5363589997368038</v>
+        <v>-0.5363589997368039</v>
       </c>
       <c r="D39">
-        <v>-0.523398939716772</v>
+        <v>-0.5233989397230787</v>
       </c>
       <c r="E39">
-        <v>-0.4718154148901506</v>
+        <v>-0.4718154148449667</v>
       </c>
       <c r="F39">
-        <v>-0.517809302369316</v>
+        <v>-0.5178093001242215</v>
       </c>
       <c r="G39">
         <v>-0.5233989399056669</v>
@@ -1306,16 +1306,16 @@
         <v>-0.3820725654998818</v>
       </c>
       <c r="D40">
-        <v>-0.3657659540715045</v>
+        <v>-0.365765954073866</v>
       </c>
       <c r="E40">
-        <v>-0.3487302969055969</v>
+        <v>-0.348730296878745</v>
       </c>
       <c r="F40">
-        <v>-0.3632289245876476</v>
+        <v>-0.3632289239047027</v>
       </c>
       <c r="G40">
-        <v>-0.3657659541422364</v>
+        <v>-0.3657659541422363</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1329,16 +1329,16 @@
         <v>-0.1013256233041023</v>
       </c>
       <c r="D41">
-        <v>-0.09207175406448227</v>
+        <v>-0.09207175406624234</v>
       </c>
       <c r="E41">
-        <v>-0.05987484248985082</v>
+        <v>-0.05987484249450534</v>
       </c>
       <c r="F41">
-        <v>-0.08934400154546232</v>
+        <v>-0.08934400133395981</v>
       </c>
       <c r="G41">
-        <v>-0.0920717541171992</v>
+        <v>-0.09207175411719923</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1352,13 +1352,13 @@
         <v>-0.1566179866718019</v>
       </c>
       <c r="D42">
-        <v>-0.1448173991259593</v>
+        <v>-0.1448173991280191</v>
       </c>
       <c r="E42">
-        <v>-0.1117785630638762</v>
+        <v>-0.1117785630634005</v>
       </c>
       <c r="F42">
-        <v>-0.1421208363962619</v>
+        <v>-0.1421208359726126</v>
       </c>
       <c r="G42">
         <v>-0.1448173991876516</v>
@@ -1375,13 +1375,13 @@
         <v>0.4845716989788071</v>
       </c>
       <c r="D43">
-        <v>0.4678632316425942</v>
+        <v>0.467863231637745</v>
       </c>
       <c r="E43">
-        <v>0.5795416908824117</v>
+        <v>0.5795416908195722</v>
       </c>
       <c r="F43">
-        <v>0.4724872172219529</v>
+        <v>0.4724872188323014</v>
       </c>
       <c r="G43">
         <v>0.4678632314973513</v>
@@ -1392,19 +1392,19 @@
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.59316263839594</v>
+        <v>1.593162638395941</v>
       </c>
       <c r="C44">
         <v>1.652009330998746</v>
       </c>
       <c r="D44">
-        <v>1.59811815116112</v>
+        <v>1.598118151160312</v>
       </c>
       <c r="E44">
-        <v>1.731145046134689</v>
+        <v>1.731145045957712</v>
       </c>
       <c r="F44">
-        <v>1.592307331397608</v>
+        <v>1.592307334004363</v>
       </c>
       <c r="G44">
         <v>1.598118151136923</v>
@@ -1415,19 +1415,19 @@
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.432685345132524</v>
+        <v>1.432685345132525</v>
       </c>
       <c r="C45">
         <v>1.468798040621711</v>
       </c>
       <c r="D45">
-        <v>1.443725026723336</v>
+        <v>1.44372502672101</v>
       </c>
       <c r="E45">
-        <v>1.59096972923497</v>
+        <v>1.590969729068241</v>
       </c>
       <c r="F45">
-        <v>1.440357904029197</v>
+        <v>1.440357906785531</v>
       </c>
       <c r="G45">
         <v>1.443725026653685</v>
@@ -1438,19 +1438,19 @@
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.766867628521997</v>
+        <v>1.766867628521998</v>
       </c>
       <c r="C46">
         <v>1.804685204827183</v>
       </c>
       <c r="D46">
-        <v>1.776998065393651</v>
+        <v>1.776998065393159</v>
       </c>
       <c r="E46">
-        <v>1.921432174535725</v>
+        <v>1.921432174335551</v>
       </c>
       <c r="F46">
-        <v>1.768606698745836</v>
+        <v>1.768606702057545</v>
       </c>
       <c r="G46">
         <v>1.776998065378907</v>
@@ -1467,13 +1467,13 @@
         <v>1.683789709477412</v>
       </c>
       <c r="D47">
-        <v>1.64967186924277</v>
+        <v>1.649671869243176</v>
       </c>
       <c r="E47">
-        <v>1.769715076403142</v>
+        <v>1.769715076220525</v>
       </c>
       <c r="F47">
-        <v>1.641955804643299</v>
+        <v>1.641955807113284</v>
       </c>
       <c r="G47">
         <v>1.649671869254898</v>
@@ -1484,19 +1484,19 @@
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.502213137154637</v>
+        <v>1.502213137154638</v>
       </c>
       <c r="C48">
         <v>1.56754782400749</v>
       </c>
       <c r="D48">
-        <v>1.540875794542327</v>
+        <v>1.540875794542574</v>
       </c>
       <c r="E48">
-        <v>1.652000325217179</v>
+        <v>1.652000325050881</v>
       </c>
       <c r="F48">
-        <v>1.532578371607037</v>
+        <v>1.532578374389886</v>
       </c>
       <c r="G48">
         <v>1.540875794549724</v>
@@ -1513,13 +1513,13 @@
         <v>1.293443420109388</v>
       </c>
       <c r="D49">
-        <v>1.289225485231086</v>
+        <v>1.289225485230319</v>
       </c>
       <c r="E49">
-        <v>1.398232756328581</v>
+        <v>1.398232756186273</v>
       </c>
       <c r="F49">
-        <v>1.284465848622799</v>
+        <v>1.284465850829157</v>
       </c>
       <c r="G49">
         <v>1.289225485208096</v>
@@ -1530,22 +1530,22 @@
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.06002888129432082</v>
+        <v>0.06002888129432084</v>
       </c>
       <c r="C50">
-        <v>0.02925024445669425</v>
+        <v>0.0292502444566942</v>
       </c>
       <c r="D50">
-        <v>0.03633569266957627</v>
+        <v>0.03633569266376091</v>
       </c>
       <c r="E50">
-        <v>0.1303675275865148</v>
+        <v>0.1303675275689716</v>
       </c>
       <c r="F50">
-        <v>0.04231465345640036</v>
+        <v>0.04231465523354623</v>
       </c>
       <c r="G50">
-        <v>0.03633569249539667</v>
+        <v>0.03633569249539677</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -1559,16 +1559,16 @@
         <v>-0.5276722379164995</v>
       </c>
       <c r="D51">
-        <v>-0.5401045491925668</v>
+        <v>-0.5401045491999328</v>
       </c>
       <c r="E51">
-        <v>-0.4701179289942521</v>
+        <v>-0.4701179289462969</v>
       </c>
       <c r="F51">
-        <v>-0.5309153262296324</v>
+        <v>-0.5309153245525323</v>
       </c>
       <c r="G51">
-        <v>-0.5401045494131881</v>
+        <v>-0.5401045494131879</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1579,16 +1579,16 @@
         <v>-1.219142411469479</v>
       </c>
       <c r="C52">
-        <v>-1.355293944954084</v>
+        <v>-1.355293944954085</v>
       </c>
       <c r="D52">
-        <v>-1.398389128701695</v>
+        <v>-1.39838912871324</v>
       </c>
       <c r="E52">
-        <v>-1.303004329112036</v>
+        <v>-1.303004328993536</v>
       </c>
       <c r="F52">
-        <v>-1.388934936388597</v>
+        <v>-1.388934932001371</v>
       </c>
       <c r="G52">
         <v>-1.398389129047503</v>
@@ -1605,16 +1605,16 @@
         <v>-0.875358792783737</v>
       </c>
       <c r="D53">
-        <v>-0.8895214903464914</v>
+        <v>-0.8895214903560071</v>
       </c>
       <c r="E53">
-        <v>-0.8175716983005534</v>
+        <v>-0.8175716982149647</v>
       </c>
       <c r="F53">
-        <v>-0.8793383327188338</v>
+        <v>-0.8793383299524847</v>
       </c>
       <c r="G53">
-        <v>-0.8895214906315008</v>
+        <v>-0.8895214906315004</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -1625,19 +1625,19 @@
         <v>0.3453237715938149</v>
       </c>
       <c r="C54">
-        <v>0.3400141170002452</v>
+        <v>0.3400141170002451</v>
       </c>
       <c r="D54">
-        <v>0.3449809347175532</v>
+        <v>0.34498093471275</v>
       </c>
       <c r="E54">
-        <v>0.4453552788069032</v>
+        <v>0.4453552787597823</v>
       </c>
       <c r="F54">
-        <v>0.3493785986447966</v>
+        <v>0.3493786003048653</v>
       </c>
       <c r="G54">
-        <v>0.3449809345736889</v>
+        <v>0.3449809345736891</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -1645,19 +1645,19 @@
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.7955026658527564</v>
+        <v>0.7955026658527563</v>
       </c>
       <c r="C55">
         <v>0.7983040292812712</v>
       </c>
       <c r="D55">
-        <v>0.8086227243081702</v>
+        <v>0.8086227243079286</v>
       </c>
       <c r="E55">
-        <v>0.8789358954333786</v>
+        <v>0.878935895337685</v>
       </c>
       <c r="F55">
-        <v>0.807054462700713</v>
+        <v>0.8070544634199999</v>
       </c>
       <c r="G55">
         <v>0.8086227243009293</v>
@@ -1674,13 +1674,13 @@
         <v>1.387109526844893</v>
       </c>
       <c r="D56">
-        <v>1.382481031091504</v>
+        <v>1.382481031094116</v>
       </c>
       <c r="E56">
-        <v>1.449330922432549</v>
+        <v>1.449330922283644</v>
       </c>
       <c r="F56">
-        <v>1.374337898312043</v>
+        <v>1.37433789945322</v>
       </c>
       <c r="G56">
         <v>1.382481031169738</v>
@@ -1697,13 +1697,13 @@
         <v>1.56476550274951</v>
       </c>
       <c r="D57">
-        <v>1.562624408973905</v>
+        <v>1.562624408976345</v>
       </c>
       <c r="E57">
-        <v>1.646251549866319</v>
+        <v>1.646251549695945</v>
       </c>
       <c r="F57">
-        <v>1.553473854131098</v>
+        <v>1.553473855745437</v>
       </c>
       <c r="G57">
         <v>1.562624409046989</v>
@@ -1720,16 +1720,16 @@
         <v>1.438268017788373</v>
       </c>
       <c r="D58">
-        <v>1.433860043344211</v>
+        <v>1.433860043343879</v>
       </c>
       <c r="E58">
-        <v>1.549409976194851</v>
+        <v>1.549409976034022</v>
       </c>
       <c r="F58">
-        <v>1.427444404014958</v>
+        <v>1.427444406517956</v>
       </c>
       <c r="G58">
-        <v>1.433860043334238</v>
+        <v>1.433860043334237</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -1743,16 +1743,16 @@
         <v>1.15861026916564</v>
       </c>
       <c r="D59">
-        <v>1.161278833004381</v>
+        <v>1.161278833004192</v>
       </c>
       <c r="E59">
-        <v>1.254815056400069</v>
+        <v>1.254815056268875</v>
       </c>
       <c r="F59">
-        <v>1.157162854395103</v>
+        <v>1.157162855984568</v>
       </c>
       <c r="G59">
-        <v>1.161278832998712</v>
+        <v>1.161278832998711</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -1766,13 +1766,13 @@
         <v>1.075423561432892</v>
       </c>
       <c r="D60">
-        <v>1.069620799982038</v>
+        <v>1.069620799982834</v>
       </c>
       <c r="E60">
-        <v>1.141773673592306</v>
+        <v>1.141773673472726</v>
       </c>
       <c r="F60">
-        <v>1.066990158242476</v>
+        <v>1.066990158643259</v>
       </c>
       <c r="G60">
         <v>1.069620800005874</v>
@@ -1783,19 +1783,19 @@
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.8346360010641314</v>
+        <v>0.8346360010641313</v>
       </c>
       <c r="C61">
         <v>0.8367587511401126</v>
       </c>
       <c r="D61">
-        <v>0.8480807803207786</v>
+        <v>0.848080780319913</v>
       </c>
       <c r="E61">
-        <v>0.9297101000477084</v>
+        <v>0.9297100999479715</v>
       </c>
       <c r="F61">
-        <v>0.8475251388112235</v>
+        <v>0.8475251395892933</v>
       </c>
       <c r="G61">
         <v>0.8480807802948516</v>
@@ -1806,22 +1806,22 @@
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.1772376834698158</v>
+        <v>0.1772376834698161</v>
       </c>
       <c r="C62">
         <v>0.1283954223521604</v>
       </c>
       <c r="D62">
-        <v>0.1297315719254694</v>
+        <v>0.1297315719186178</v>
       </c>
       <c r="E62">
-        <v>0.2510619618450562</v>
+        <v>0.2510619618083563</v>
       </c>
       <c r="F62">
-        <v>0.1362507156928649</v>
+        <v>0.1362507179728959</v>
       </c>
       <c r="G62">
-        <v>0.1297315717202485</v>
+        <v>0.1297315717202484</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -1829,22 +1829,22 @@
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.08416407994712355</v>
+        <v>-0.08416407994712341</v>
       </c>
       <c r="C63">
         <v>-0.1071425800748329</v>
       </c>
       <c r="D63">
-        <v>-0.1092519192342428</v>
+        <v>-0.1092519192414586</v>
       </c>
       <c r="E63">
-        <v>-0.001045684912165487</v>
+        <v>-0.00104568492282631</v>
       </c>
       <c r="F63">
-        <v>-0.1023715156284822</v>
+        <v>-0.1023715132324053</v>
       </c>
       <c r="G63">
-        <v>-0.1092519194503715</v>
+        <v>-0.1092519194503716</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -1852,19 +1852,19 @@
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.509172972568455</v>
+        <v>1.509172972568456</v>
       </c>
       <c r="C64">
         <v>1.56697751732027</v>
       </c>
       <c r="D64">
-        <v>1.520328613819068</v>
+        <v>1.520328613815599</v>
       </c>
       <c r="E64">
-        <v>1.689572609237527</v>
+        <v>1.689572609061806</v>
       </c>
       <c r="F64">
-        <v>1.517480063162231</v>
+        <v>1.51748006650151</v>
       </c>
       <c r="G64">
         <v>1.520328613715168</v>
@@ -1875,19 +1875,19 @@
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.638075554580589</v>
+        <v>1.63807555458059</v>
       </c>
       <c r="C65">
         <v>1.693926836157169</v>
       </c>
       <c r="D65">
-        <v>1.639673115838538</v>
+        <v>1.639673115834005</v>
       </c>
       <c r="E65">
-        <v>1.835821231048411</v>
+        <v>1.835821230855018</v>
       </c>
       <c r="F65">
-        <v>1.637189100098834</v>
+        <v>1.637189104022621</v>
       </c>
       <c r="G65">
         <v>1.639673115702751</v>
@@ -1898,22 +1898,22 @@
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>1.813775691337654</v>
+        <v>1.813775691337655</v>
       </c>
       <c r="C66">
         <v>1.84658539782846</v>
       </c>
       <c r="D66">
-        <v>1.80916636813461</v>
+        <v>1.809166368129535</v>
       </c>
       <c r="E66">
-        <v>2.029069961360038</v>
+        <v>2.029069961142959</v>
       </c>
       <c r="F66">
-        <v>1.806901047783539</v>
+        <v>1.806901051992486</v>
       </c>
       <c r="G66">
-        <v>1.809166367982609</v>
+        <v>1.809166367982608</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -1927,16 +1927,16 @@
         <v>1.687404790953847</v>
       </c>
       <c r="D67">
-        <v>1.647023093846254</v>
+        <v>1.64702309384346</v>
       </c>
       <c r="E67">
-        <v>1.81952038235585</v>
+        <v>1.819520382161642</v>
       </c>
       <c r="F67">
-        <v>1.644268279422967</v>
+        <v>1.644268282275118</v>
       </c>
       <c r="G67">
-        <v>1.647023093762597</v>
+        <v>1.647023093762596</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -1950,13 +1950,13 @@
         <v>1.507674512031287</v>
       </c>
       <c r="D68">
-        <v>1.473694114082004</v>
+        <v>1.473694114080541</v>
       </c>
       <c r="E68">
-        <v>1.612865198672713</v>
+        <v>1.612865198500281</v>
       </c>
       <c r="F68">
-        <v>1.471820204883032</v>
+        <v>1.471820206529699</v>
       </c>
       <c r="G68">
         <v>1.473694114038193</v>
@@ -1973,16 +1973,16 @@
         <v>1.699212655827057</v>
       </c>
       <c r="D69">
-        <v>1.644114338571888</v>
+        <v>1.644114338572124</v>
       </c>
       <c r="E69">
-        <v>1.76844620692407</v>
+        <v>1.768446206738649</v>
       </c>
       <c r="F69">
-        <v>1.641560974176722</v>
+        <v>1.641560974925071</v>
       </c>
       <c r="G69">
-        <v>1.644114338578966</v>
+        <v>1.644114338578965</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -1996,16 +1996,16 @@
         <v>0.2870452362394111</v>
       </c>
       <c r="D70">
-        <v>0.285353635828744</v>
+        <v>0.2853536358283134</v>
       </c>
       <c r="E70">
-        <v>0.3232359022327099</v>
+        <v>0.3232359021870541</v>
       </c>
       <c r="F70">
-        <v>0.287693734099991</v>
+        <v>0.287693733556888</v>
       </c>
       <c r="G70">
-        <v>0.2853536358158452</v>
+        <v>0.2853536358158451</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2013,22 +2013,22 @@
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.5546857709593859</v>
+        <v>0.554685770959386</v>
       </c>
       <c r="C71">
         <v>0.6161582574982739</v>
       </c>
       <c r="D71">
-        <v>0.617360576687871</v>
+        <v>0.6173605766852209</v>
       </c>
       <c r="E71">
-        <v>0.7118318691212641</v>
+        <v>0.7118318690387299</v>
       </c>
       <c r="F71">
-        <v>0.6205321626118754</v>
+        <v>0.6205321632625458</v>
       </c>
       <c r="G71">
-        <v>0.6173605766084916</v>
+        <v>0.6173605766084914</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2036,19 +2036,19 @@
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.294761037644657</v>
+        <v>0.2947610376446571</v>
       </c>
       <c r="C72">
         <v>0.2845238820827264</v>
       </c>
       <c r="D72">
-        <v>0.2899362715758333</v>
+        <v>0.289936271569697</v>
       </c>
       <c r="E72">
-        <v>0.4074405399855118</v>
+        <v>0.4074405399403105</v>
       </c>
       <c r="F72">
-        <v>0.295435546168398</v>
+        <v>0.2954355483312811</v>
       </c>
       <c r="G72">
         <v>0.289936271392041</v>
@@ -2065,13 +2065,13 @@
         <v>0.3043615848186959</v>
       </c>
       <c r="D73">
-        <v>0.3089137911003988</v>
+        <v>0.3089137910928706</v>
       </c>
       <c r="E73">
-        <v>0.4491289087803057</v>
+        <v>0.4491289087302043</v>
       </c>
       <c r="F73">
-        <v>0.3153187931286162</v>
+        <v>0.3153187959034364</v>
       </c>
       <c r="G73">
         <v>0.3089137908749171</v>
@@ -2082,19 +2082,19 @@
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.4891667349698399</v>
+        <v>0.48916673496984</v>
       </c>
       <c r="C74">
-        <v>0.4915803400974531</v>
+        <v>0.4915803400974532</v>
       </c>
       <c r="D74">
-        <v>0.4952422280208028</v>
+        <v>0.4952422280139943</v>
       </c>
       <c r="E74">
-        <v>0.6369853469592643</v>
+        <v>0.6369853468922828</v>
       </c>
       <c r="F74">
-        <v>0.5004516686929257</v>
+        <v>0.5004516714097874</v>
       </c>
       <c r="G74">
         <v>0.4952422278168784</v>
@@ -2105,22 +2105,22 @@
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.2062618862773705</v>
+        <v>0.2062618862773706</v>
       </c>
       <c r="C75">
         <v>0.1906459332096153</v>
       </c>
       <c r="D75">
-        <v>0.1961758475500269</v>
+        <v>0.1961758475404107</v>
       </c>
       <c r="E75">
-        <v>0.3586783191200318</v>
+        <v>0.3586783190799099</v>
       </c>
       <c r="F75">
-        <v>0.2041654052581427</v>
+        <v>0.2041654088709071</v>
       </c>
       <c r="G75">
-        <v>0.1961758472620035</v>
+        <v>0.1961758472620036</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2128,22 +2128,22 @@
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.4562479322330475</v>
+        <v>0.4562479322330476</v>
       </c>
       <c r="C76">
-        <v>0.4442211208947952</v>
+        <v>0.444221120894795</v>
       </c>
       <c r="D76">
-        <v>0.4630536353744704</v>
+        <v>0.4630536353666997</v>
       </c>
       <c r="E76">
-        <v>0.6167084570272666</v>
+        <v>0.6167084569624599</v>
       </c>
       <c r="F76">
-        <v>0.4682698152873055</v>
+        <v>0.4682698186473606</v>
       </c>
       <c r="G76">
-        <v>0.4630536351417259</v>
+        <v>0.463053635141726</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2151,22 +2151,22 @@
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.1943148504391</v>
+        <v>-0.1943148504390999</v>
       </c>
       <c r="C77">
         <v>-0.2391768288381756</v>
       </c>
       <c r="D77">
-        <v>-0.2414577946052216</v>
+        <v>-0.2414577946127049</v>
       </c>
       <c r="E77">
-        <v>-0.1439787461387637</v>
+        <v>-0.1439787461278041</v>
       </c>
       <c r="F77">
-        <v>-0.2334055394030437</v>
+        <v>-0.2334055372434835</v>
       </c>
       <c r="G77">
-        <v>-0.2414577948293588</v>
+        <v>-0.2414577948293587</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2180,13 +2180,13 @@
         <v>-0.3296630713764244</v>
       </c>
       <c r="D78">
-        <v>-0.3333028987756548</v>
+        <v>-0.3333028987825102</v>
       </c>
       <c r="E78">
-        <v>-0.2495127378299893</v>
+        <v>-0.2495127378140624</v>
       </c>
       <c r="F78">
-        <v>-0.3266058658230787</v>
+        <v>-0.3266058636035509</v>
       </c>
       <c r="G78">
         <v>-0.3333028989809883</v>
@@ -2203,13 +2203,13 @@
         <v>0.6176720964570575</v>
       </c>
       <c r="D79">
-        <v>0.6210515864219845</v>
+        <v>0.6210515864201123</v>
       </c>
       <c r="E79">
-        <v>0.7042381668613225</v>
+        <v>0.7042381667795514</v>
       </c>
       <c r="F79">
-        <v>0.6232949999862329</v>
+        <v>0.6232950004449396</v>
       </c>
       <c r="G79">
         <v>0.6210515863658995</v>
@@ -2220,22 +2220,22 @@
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.7267426119348182</v>
+        <v>0.7267426119348185</v>
       </c>
       <c r="C80">
-        <v>0.7664165033213904</v>
+        <v>0.7664165033213903</v>
       </c>
       <c r="D80">
-        <v>0.7602481110183905</v>
+        <v>0.7602481110163107</v>
       </c>
       <c r="E80">
-        <v>0.8578591024292386</v>
+        <v>0.8578591023304774</v>
       </c>
       <c r="F80">
-        <v>0.7628405576143165</v>
+        <v>0.7628405580879798</v>
       </c>
       <c r="G80">
-        <v>0.7602481109560945</v>
+        <v>0.7602481109560943</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2243,19 +2243,19 @@
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>1.314925169137501</v>
+        <v>1.314925169137502</v>
       </c>
       <c r="C81">
-        <v>0.8633047377019744</v>
+        <v>0.8633047377019742</v>
       </c>
       <c r="D81">
-        <v>0.8474574159589603</v>
+        <v>0.8474574159571105</v>
       </c>
       <c r="E81">
-        <v>0.9467076336107619</v>
+        <v>0.9467076335049883</v>
       </c>
       <c r="F81">
-        <v>0.8500584914238534</v>
+        <v>0.8500584917402669</v>
       </c>
       <c r="G81">
         <v>0.8474574159035522</v>
@@ -2266,22 +2266,22 @@
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.1164917328190286</v>
+        <v>0.1164917328190287</v>
       </c>
       <c r="C82">
-        <v>0.1060620007290691</v>
+        <v>0.106062000729069</v>
       </c>
       <c r="D82">
-        <v>0.08434903715955544</v>
+        <v>0.08434903715505628</v>
       </c>
       <c r="E82">
-        <v>0.1697853710393241</v>
+        <v>0.1697853710055214</v>
       </c>
       <c r="F82">
-        <v>0.09119648098883204</v>
+        <v>0.09119648157355723</v>
       </c>
       <c r="G82">
-        <v>0.08434903702479274</v>
+        <v>0.08434903702479254</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -2289,22 +2289,22 @@
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.9049136969350143</v>
+        <v>0.9049136969350147</v>
       </c>
       <c r="C83">
-        <v>0.8709372067686854</v>
+        <v>0.8709372067686852</v>
       </c>
       <c r="D83">
-        <v>0.8301067790573237</v>
+        <v>0.8301067790552162</v>
       </c>
       <c r="E83">
-        <v>0.9358495197989355</v>
+        <v>0.9358495196887017</v>
       </c>
       <c r="F83">
-        <v>0.8357440521019435</v>
+        <v>0.8357440515118496</v>
       </c>
       <c r="G83">
-        <v>0.8301067789942024</v>
+        <v>0.8301067789942023</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -2312,22 +2312,22 @@
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.3720858058061071</v>
+        <v>0.3720858058061073</v>
       </c>
       <c r="C84">
-        <v>0.3464197760545255</v>
+        <v>0.3464197760545254</v>
       </c>
       <c r="D84">
-        <v>0.308238584544561</v>
+        <v>0.3082385845407511</v>
       </c>
       <c r="E84">
-        <v>0.4008473202854618</v>
+        <v>0.4008473202282705</v>
       </c>
       <c r="F84">
-        <v>0.316380295225764</v>
+        <v>0.3163802948880962</v>
       </c>
       <c r="G84">
-        <v>0.3082385844304431</v>
+        <v>0.3082385844304429</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2335,22 +2335,22 @@
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.7323556504184568</v>
+        <v>-0.7323556504184566</v>
       </c>
       <c r="C85">
-        <v>-0.7289786258270329</v>
+        <v>-0.728978625827033</v>
       </c>
       <c r="D85">
-        <v>-0.7395721723041891</v>
+        <v>-0.739572172314785</v>
       </c>
       <c r="E85">
-        <v>-0.6281414091422527</v>
+        <v>-0.6281414090964353</v>
       </c>
       <c r="F85">
-        <v>-0.7301622161550654</v>
+        <v>-0.7301622123906881</v>
       </c>
       <c r="G85">
-        <v>-0.7395721726215544</v>
+        <v>-0.7395721726215545</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -2364,13 +2364,13 @@
         <v>-1.077416109605919</v>
       </c>
       <c r="D86">
-        <v>-1.077197345508285</v>
+        <v>-1.077197345521126</v>
       </c>
       <c r="E86">
-        <v>-0.9634351909236551</v>
+        <v>-0.9634351908411571</v>
       </c>
       <c r="F86">
-        <v>-1.068159195449284</v>
+        <v>-1.068159190046084</v>
       </c>
       <c r="G86">
         <v>-1.077197345892909</v>
@@ -2387,13 +2387,13 @@
         <v>-1.510710713329284</v>
       </c>
       <c r="D87">
-        <v>-1.510612604505536</v>
+        <v>-1.510612604521961</v>
       </c>
       <c r="E87">
-        <v>-1.381095185685581</v>
+        <v>-1.381095185560395</v>
       </c>
       <c r="F87">
-        <v>-1.500927317374662</v>
+        <v>-1.500927309797049</v>
       </c>
       <c r="G87">
         <v>-1.510612604997502</v>
@@ -2404,22 +2404,22 @@
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.8811332632401873</v>
+        <v>-0.8811332632401871</v>
       </c>
       <c r="C88">
         <v>-0.8788205124355835</v>
       </c>
       <c r="D88">
-        <v>-0.8748256138965889</v>
+        <v>-0.8748256139086575</v>
       </c>
       <c r="E88">
-        <v>-0.7508179409039721</v>
+        <v>-0.7508179408452476</v>
       </c>
       <c r="F88">
-        <v>-0.8652701778741123</v>
+        <v>-0.8652701731730701</v>
       </c>
       <c r="G88">
-        <v>-0.8748256142580721</v>
+        <v>-0.8748256142580723</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -2433,13 +2433,13 @@
         <v>-1.451835529704324</v>
       </c>
       <c r="D89">
-        <v>-1.456475389929866</v>
+        <v>-1.456475389944283</v>
       </c>
       <c r="E89">
-        <v>-1.761639506564393</v>
+        <v>-1.761639506214912</v>
       </c>
       <c r="F89">
-        <v>-1.447590713195549</v>
+        <v>-1.447590706681328</v>
       </c>
       <c r="G89">
         <v>-1.456475390361658</v>
@@ -2450,22 +2450,22 @@
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.2961102085651592</v>
+        <v>-0.2961102085651591</v>
       </c>
       <c r="C90">
-        <v>-0.3025081138594917</v>
+        <v>-0.3025081138594918</v>
       </c>
       <c r="D90">
-        <v>-0.322975712768636</v>
+        <v>-0.3229757127764273</v>
       </c>
       <c r="E90">
-        <v>-0.2182078667453118</v>
+        <v>-0.2182078667432018</v>
       </c>
       <c r="F90">
-        <v>-0.3138596017536447</v>
+        <v>-0.3138595997665236</v>
       </c>
       <c r="G90">
-        <v>-0.3229757130020043</v>
+        <v>-0.3229757130020044</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2473,22 +2473,22 @@
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>0.01233946919272913</v>
+        <v>0.01233946919272936</v>
       </c>
       <c r="C91">
-        <v>0.000746915990477888</v>
+        <v>0.0007469159904777908</v>
       </c>
       <c r="D91">
-        <v>-0.03618732965016494</v>
+        <v>-0.03618732965535493</v>
       </c>
       <c r="E91">
-        <v>0.05157538147728391</v>
+        <v>0.05157538145216639</v>
       </c>
       <c r="F91">
-        <v>-0.02732793231863628</v>
+        <v>-0.02732793198563202</v>
       </c>
       <c r="G91">
-        <v>-0.03618732980561834</v>
+        <v>-0.03618732980561857</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -2496,22 +2496,22 @@
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.1473294709514322</v>
+        <v>0.1473294709514325</v>
       </c>
       <c r="C92">
-        <v>0.1320151842701535</v>
+        <v>0.1320151842701534</v>
       </c>
       <c r="D92">
-        <v>0.08740632862467484</v>
+        <v>0.08740632862064752</v>
       </c>
       <c r="E92">
-        <v>0.1671399871367644</v>
+        <v>0.1671399871001706</v>
       </c>
       <c r="F92">
-        <v>0.09626009400452062</v>
+        <v>0.09626009355949236</v>
       </c>
       <c r="G92">
-        <v>0.08740632850404412</v>
+        <v>0.0874063285040439</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -2519,22 +2519,22 @@
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.4920378197052429</v>
+        <v>0.4920378197052432</v>
       </c>
       <c r="C93">
-        <v>0.4647423322447642</v>
+        <v>0.464742332244764</v>
       </c>
       <c r="D93">
-        <v>0.4153074758885933</v>
+        <v>0.4153074758865981</v>
       </c>
       <c r="E93">
-        <v>0.4897513821328923</v>
+        <v>0.4897513820650377</v>
       </c>
       <c r="F93">
-        <v>0.4231793830265879</v>
+        <v>0.4231793815671511</v>
       </c>
       <c r="G93">
-        <v>0.415307475828828</v>
+        <v>0.4153074758288279</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -2542,22 +2542,22 @@
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.5926281000020669</v>
+        <v>0.5926281000020672</v>
       </c>
       <c r="C94">
-        <v>0.5628393605900465</v>
+        <v>0.5628393605900462</v>
       </c>
       <c r="D94">
-        <v>0.5129726861894304</v>
+        <v>0.512972686187825</v>
       </c>
       <c r="E94">
-        <v>0.5890332064211703</v>
+        <v>0.5890332063434202</v>
       </c>
       <c r="F94">
-        <v>0.520470076482676</v>
+        <v>0.5204700748947307</v>
       </c>
       <c r="G94">
-        <v>0.5129726861413432</v>
+        <v>0.5129726861413428</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -2565,22 +2565,22 @@
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.2592866781929839</v>
+        <v>0.2592866781929842</v>
       </c>
       <c r="C95">
-        <v>0.2388943071929633</v>
+        <v>0.2388943071929631</v>
       </c>
       <c r="D95">
-        <v>0.1964855265564216</v>
+        <v>0.1964855265525802</v>
       </c>
       <c r="E95">
-        <v>0.2818641402727863</v>
+        <v>0.2818641402258096</v>
       </c>
       <c r="F95">
-        <v>0.2050735883071163</v>
+        <v>0.2050735878318852</v>
       </c>
       <c r="G95">
-        <v>0.1964855264413587</v>
+        <v>0.1964855264413586</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -2594,16 +2594,16 @@
         <v>-0.5468863647615186</v>
       </c>
       <c r="D96">
-        <v>-0.5663158967472463</v>
+        <v>-0.5663158967558237</v>
       </c>
       <c r="E96">
-        <v>-0.4744211522422825</v>
+        <v>-0.4744211522107438</v>
       </c>
       <c r="F96">
-        <v>-0.5575332502928556</v>
+        <v>-0.5575332476596234</v>
       </c>
       <c r="G96">
-        <v>-0.5663158970041632</v>
+        <v>-0.5663158970041633</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -2611,22 +2611,22 @@
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.4338515722630756</v>
+        <v>-0.4338515722630755</v>
       </c>
       <c r="C97">
         <v>-0.4399141066644229</v>
       </c>
       <c r="D97">
-        <v>-0.4530210314930337</v>
+        <v>-0.4530210315020464</v>
       </c>
       <c r="E97">
-        <v>-0.3405200682291722</v>
+        <v>-0.3405200682130902</v>
       </c>
       <c r="F97">
-        <v>-0.4436339207690018</v>
+        <v>-0.4436339180586509</v>
       </c>
       <c r="G97">
-        <v>-0.4530210317629814</v>
+        <v>-0.4530210317629816</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -2634,22 +2634,22 @@
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.5714735988950829</v>
+        <v>-0.5714735988950828</v>
       </c>
       <c r="C98">
         <v>-0.5757284171299659</v>
       </c>
       <c r="D98">
-        <v>-0.5798519503144863</v>
+        <v>-0.5798519503246393</v>
       </c>
       <c r="E98">
-        <v>-0.4603541240956575</v>
+        <v>-0.4603541240665531</v>
       </c>
       <c r="F98">
-        <v>-0.5704834378581103</v>
+        <v>-0.5704834343759357</v>
       </c>
       <c r="G98">
-        <v>-0.5798519506185911</v>
+        <v>-0.5798519506185912</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -2657,19 +2657,19 @@
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-1.110434356746436</v>
+        <v>-1.110434356746435</v>
       </c>
       <c r="C99">
         <v>-1.105128659238895</v>
       </c>
       <c r="D99">
-        <v>-1.104363128727576</v>
+        <v>-1.104363128741625</v>
       </c>
       <c r="E99">
-        <v>-0.9680576247450314</v>
+        <v>-0.968057624665725</v>
       </c>
       <c r="F99">
-        <v>-1.094145667133401</v>
+        <v>-1.094145661339253</v>
       </c>
       <c r="G99">
         <v>-1.104363129148365</v>
@@ -2680,22 +2680,22 @@
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.8376804955735192</v>
+        <v>-0.8376804955735191</v>
       </c>
       <c r="C100">
         <v>-0.8365119287148995</v>
       </c>
       <c r="D100">
-        <v>-0.8329970071311142</v>
+        <v>-0.8329970071429552</v>
       </c>
       <c r="E100">
-        <v>-0.7087521591651583</v>
+        <v>-0.7087521591107856</v>
       </c>
       <c r="F100">
-        <v>-0.8234315546875393</v>
+        <v>-0.823431550142969</v>
       </c>
       <c r="G100">
-        <v>-0.8329970074857711</v>
+        <v>-0.8329970074857712</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -2703,22 +2703,22 @@
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.6178623069087223</v>
+        <v>-0.6178623069087221</v>
       </c>
       <c r="C101">
         <v>-0.619222593192978</v>
       </c>
       <c r="D101">
-        <v>-0.6228193848093688</v>
+        <v>-0.6228193848193564</v>
       </c>
       <c r="E101">
-        <v>-0.5101730044694556</v>
+        <v>-0.5101730044352552</v>
       </c>
       <c r="F101">
-        <v>-0.6136662360052563</v>
+        <v>-0.6136662325575631</v>
       </c>
       <c r="G101">
-        <v>-0.6228193851085191</v>
+        <v>-0.6228193851085192</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -2732,13 +2732,13 @@
         <v>-1.122521940355303</v>
       </c>
       <c r="D102">
-        <v>-1.142046049844311</v>
+        <v>-1.142046049856306</v>
       </c>
       <c r="E102">
-        <v>-1.178750131413864</v>
+        <v>-1.178750131251419</v>
       </c>
       <c r="F102">
-        <v>-1.132913859440958</v>
+        <v>-1.132913854639142</v>
       </c>
       <c r="G102">
         <v>-1.142046050203589</v>
@@ -2752,16 +2752,16 @@
         <v>-1.688338737015213</v>
       </c>
       <c r="C103">
-        <v>-1.680098988259799</v>
+        <v>-1.680098988259798</v>
       </c>
       <c r="D103">
-        <v>-1.724543384626475</v>
+        <v>-1.724543384640439</v>
       </c>
       <c r="E103">
-        <v>-1.599340023587235</v>
+        <v>-1.599340023464386</v>
       </c>
       <c r="F103">
-        <v>-1.718225176247065</v>
+        <v>-1.718225169124389</v>
       </c>
       <c r="G103">
         <v>-1.724543385044724</v>
@@ -2775,16 +2775,16 @@
         <v>-1.962229744166325</v>
       </c>
       <c r="C104">
-        <v>-1.926748015749586</v>
+        <v>-1.926748015749585</v>
       </c>
       <c r="D104">
-        <v>-1.982354445571538</v>
+        <v>-1.982354445586124</v>
       </c>
       <c r="E104">
-        <v>-1.869498120596258</v>
+        <v>-1.869498120446872</v>
       </c>
       <c r="F104">
-        <v>-1.977964043275606</v>
+        <v>-1.977964035050277</v>
       </c>
       <c r="G104">
         <v>-1.982354446008435</v>
@@ -2801,13 +2801,13 @@
         <v>-1.339983929439675</v>
       </c>
       <c r="D105">
-        <v>-1.386599239289256</v>
+        <v>-1.386599239300007</v>
       </c>
       <c r="E105">
-        <v>-1.28963648016445</v>
+        <v>-1.289636480070275</v>
       </c>
       <c r="F105">
-        <v>-1.380394810271245</v>
+        <v>-1.380394805263386</v>
       </c>
       <c r="G105">
         <v>-1.386599239611291</v>
@@ -2824,13 +2824,13 @@
         <v>-1.477985019986306</v>
       </c>
       <c r="D106">
-        <v>-1.519646453133182</v>
+        <v>-1.519646453144519</v>
       </c>
       <c r="E106">
-        <v>-1.426633152125293</v>
+        <v>-1.426633152014636</v>
       </c>
       <c r="F106">
-        <v>-1.514842086522739</v>
+        <v>-1.514842080624198</v>
       </c>
       <c r="G106">
         <v>-1.519646453472762</v>
@@ -2841,22 +2841,22 @@
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.8038995539006608</v>
+        <v>-0.8038995539006607</v>
       </c>
       <c r="C107">
         <v>-0.7187493142611008</v>
       </c>
       <c r="D107">
-        <v>-0.7511357359873464</v>
+        <v>-0.7511357359960998</v>
       </c>
       <c r="E107">
-        <v>-0.734984957255291</v>
+        <v>-0.7349849571692731</v>
       </c>
       <c r="F107">
-        <v>-0.7429294163312832</v>
+        <v>-0.7429294133753512</v>
       </c>
       <c r="G107">
-        <v>-0.7511357362495298</v>
+        <v>-0.7511357362495299</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -2864,22 +2864,22 @@
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.6395002709481431</v>
+        <v>0.6395002709481434</v>
       </c>
       <c r="C108">
-        <v>0.6068169425319043</v>
+        <v>0.6068169425319041</v>
       </c>
       <c r="D108">
-        <v>0.5588543185085564</v>
+        <v>0.5588543185060905</v>
       </c>
       <c r="E108">
-        <v>0.6497348908266461</v>
+        <v>0.6497348907452208</v>
       </c>
       <c r="F108">
-        <v>0.5664075726156705</v>
+        <v>0.5664075715854114</v>
       </c>
       <c r="G108">
-        <v>0.5588543184346932</v>
+        <v>0.5588543184346931</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -2887,22 +2887,22 @@
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.8283065191792153</v>
+        <v>0.8283065191792156</v>
       </c>
       <c r="C109">
         <v>0.7922545887723857</v>
       </c>
       <c r="D109">
-        <v>0.7402981936283675</v>
+        <v>0.7402981936257735</v>
       </c>
       <c r="E109">
-        <v>0.8463151078296761</v>
+        <v>0.8463151077289292</v>
       </c>
       <c r="F109">
-        <v>0.7472830825590377</v>
+        <v>0.7472830818167295</v>
       </c>
       <c r="G109">
-        <v>0.7402981935506656</v>
+        <v>0.7402981935506654</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -2916,16 +2916,16 @@
         <v>1.13570429607349</v>
       </c>
       <c r="D110">
-        <v>1.068465998492737</v>
+        <v>1.068465998491023</v>
       </c>
       <c r="E110">
-        <v>1.184087518950036</v>
+        <v>1.18408751881741</v>
       </c>
       <c r="F110">
-        <v>1.073882593120156</v>
+        <v>1.073882592344794</v>
       </c>
       <c r="G110">
-        <v>1.068465998441393</v>
+        <v>1.068465998441392</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -2939,13 +2939,13 @@
         <v>1.90611299581891</v>
       </c>
       <c r="D111">
-        <v>1.796050848169853</v>
+        <v>1.79605084817136</v>
       </c>
       <c r="E111">
-        <v>1.91606644161777</v>
+        <v>1.916066441412786</v>
       </c>
       <c r="F111">
-        <v>1.796362312633971</v>
+        <v>1.796362311511524</v>
       </c>
       <c r="G111">
         <v>1.796050848214986</v>
@@ -2956,19 +2956,19 @@
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.135366112376136</v>
+        <v>2.135366112376137</v>
       </c>
       <c r="C112">
         <v>2.125843196363988</v>
       </c>
       <c r="D112">
-        <v>2.022043629582538</v>
+        <v>2.022043629584652</v>
       </c>
       <c r="E112">
-        <v>2.1477149254498</v>
+        <v>2.147714925223933</v>
       </c>
       <c r="F112">
-        <v>2.018303831601094</v>
+        <v>2.018303831510739</v>
       </c>
       <c r="G112">
         <v>2.022043629645867</v>
@@ -2979,19 +2979,19 @@
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.727274357233875</v>
+        <v>1.727274357233876</v>
       </c>
       <c r="C113">
         <v>1.735858979705246</v>
       </c>
       <c r="D113">
-        <v>1.661105722788321</v>
+        <v>1.661105722788625</v>
       </c>
       <c r="E113">
-        <v>1.789914280849658</v>
+        <v>1.78991428065638</v>
       </c>
       <c r="F113">
-        <v>1.660881359728949</v>
+        <v>1.660881359604276</v>
       </c>
       <c r="G113">
         <v>1.661105722797409</v>
@@ -3002,22 +3002,22 @@
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.537437426577906</v>
+        <v>1.537437426577907</v>
       </c>
       <c r="C114">
         <v>1.46716898915751</v>
       </c>
       <c r="D114">
-        <v>1.397707405657016</v>
+        <v>1.397707405657291</v>
       </c>
       <c r="E114">
-        <v>1.511692603673672</v>
+        <v>1.511692603502842</v>
       </c>
       <c r="F114">
-        <v>1.401523576742482</v>
+        <v>1.401523575200947</v>
       </c>
       <c r="G114">
-        <v>1.397707405665246</v>
+        <v>1.397707405665245</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3031,13 +3031,13 @@
         <v>1.740873904788975</v>
       </c>
       <c r="D115">
-        <v>1.643132332024791</v>
+        <v>1.643132332027545</v>
       </c>
       <c r="E115">
-        <v>1.73739902142901</v>
+        <v>1.737399021236595</v>
       </c>
       <c r="F115">
-        <v>1.646602796223174</v>
+        <v>1.646602793141476</v>
       </c>
       <c r="G115">
         <v>1.643132332107263</v>
@@ -3048,22 +3048,22 @@
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>2.115863261809585</v>
+        <v>2.115863261809586</v>
       </c>
       <c r="C116">
         <v>2.027509186796824</v>
       </c>
       <c r="D116">
-        <v>1.909116284737497</v>
+        <v>1.909116284741865</v>
       </c>
       <c r="E116">
-        <v>1.997083854706432</v>
+        <v>1.997083854490266</v>
       </c>
       <c r="F116">
-        <v>1.911352922919549</v>
+        <v>1.91135291919318</v>
       </c>
       <c r="G116">
-        <v>1.909116284868326</v>
+        <v>1.909116284868325</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3077,16 +3077,16 @@
         <v>1.606291209254615</v>
       </c>
       <c r="D117">
-        <v>1.507876235314539</v>
+        <v>1.50787623531752</v>
       </c>
       <c r="E117">
-        <v>1.586748936267225</v>
+        <v>1.586748936092939</v>
       </c>
       <c r="F117">
-        <v>1.512334146423557</v>
+        <v>1.512334142838913</v>
       </c>
       <c r="G117">
-        <v>1.50787623540381</v>
+        <v>1.507876235403809</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3094,19 +3094,19 @@
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.208669827875071</v>
+        <v>1.208669827875072</v>
       </c>
       <c r="C118">
         <v>1.15595093338532</v>
       </c>
       <c r="D118">
-        <v>1.083259335893659</v>
+        <v>1.083259335894626</v>
       </c>
       <c r="E118">
-        <v>1.162817500097286</v>
+        <v>1.162817499962959</v>
       </c>
       <c r="F118">
-        <v>1.089361672727418</v>
+        <v>1.089361669909497</v>
       </c>
       <c r="G118">
         <v>1.083259335922611</v>
@@ -3123,16 +3123,16 @@
         <v>1.225685508191907</v>
       </c>
       <c r="D119">
-        <v>1.142610658103522</v>
+        <v>1.142610658104446</v>
       </c>
       <c r="E119">
-        <v>1.226526665094176</v>
+        <v>1.226526664954339</v>
       </c>
       <c r="F119">
-        <v>1.149068641064664</v>
+        <v>1.149068638148797</v>
       </c>
       <c r="G119">
-        <v>1.142610658131206</v>
+        <v>1.142610658131205</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3140,22 +3140,22 @@
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.296518116061468</v>
+        <v>2.296518116061469</v>
       </c>
       <c r="C120">
         <v>2.214592480276035</v>
       </c>
       <c r="D120">
-        <v>2.066935217754725</v>
+        <v>2.066935217760181</v>
       </c>
       <c r="E120">
-        <v>2.146182230429607</v>
+        <v>2.146182230203932</v>
       </c>
       <c r="F120">
-        <v>2.066846021805454</v>
+        <v>2.066846018175448</v>
       </c>
       <c r="G120">
-        <v>2.066935217918163</v>
+        <v>2.066935217918162</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3163,19 +3163,19 @@
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>2.096798439286495</v>
+        <v>2.096798439286496</v>
       </c>
       <c r="C121">
-        <v>2.019270836630014</v>
+        <v>2.019270836630013</v>
       </c>
       <c r="D121">
-        <v>1.887492339402355</v>
+        <v>1.887492339405723</v>
       </c>
       <c r="E121">
-        <v>1.985863820507861</v>
+        <v>1.985863820296708</v>
       </c>
       <c r="F121">
-        <v>1.888295773491037</v>
+        <v>1.888295770945178</v>
       </c>
       <c r="G121">
         <v>1.88749233950323</v>
@@ -3186,19 +3186,19 @@
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.798620039185722</v>
+        <v>1.798620039185723</v>
       </c>
       <c r="C122">
         <v>1.740463431710415</v>
       </c>
       <c r="D122">
-        <v>1.634972168369961</v>
+        <v>1.634972168371021</v>
       </c>
       <c r="E122">
-        <v>1.749412386439167</v>
+        <v>1.749412386251562</v>
       </c>
       <c r="F122">
-        <v>1.636982918645011</v>
+        <v>1.636982917218657</v>
       </c>
       <c r="G122">
         <v>1.634972168401707</v>
@@ -3209,19 +3209,19 @@
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.352287251726468</v>
+        <v>1.352287251726469</v>
       </c>
       <c r="C123">
         <v>1.307649702270941</v>
       </c>
       <c r="D123">
-        <v>1.233762083981383</v>
+        <v>1.233762083980019</v>
       </c>
       <c r="E123">
-        <v>1.356698973715526</v>
+        <v>1.356698973565018</v>
       </c>
       <c r="F123">
-        <v>1.238220193024061</v>
+        <v>1.238220192354619</v>
       </c>
       <c r="G123">
         <v>1.233762083940512</v>
@@ -3232,19 +3232,19 @@
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.541875745540782</v>
+        <v>1.541875745540783</v>
       </c>
       <c r="C124">
         <v>1.456300095576816</v>
       </c>
       <c r="D124">
-        <v>1.387495609414747</v>
+        <v>1.387495609413965</v>
       </c>
       <c r="E124">
-        <v>1.511463403202487</v>
+        <v>1.511463403038547</v>
       </c>
       <c r="F124">
-        <v>1.389495506128427</v>
+        <v>1.389495505941933</v>
       </c>
       <c r="G124">
         <v>1.387495609391317</v>
@@ -3255,19 +3255,19 @@
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.49634103706167</v>
+        <v>1.496341037061671</v>
       </c>
       <c r="C125">
         <v>1.404180153389242</v>
       </c>
       <c r="D125">
-        <v>1.344728667844311</v>
+        <v>1.3447286678433</v>
       </c>
       <c r="E125">
-        <v>1.470549388090525</v>
+        <v>1.470549387928561</v>
       </c>
       <c r="F125">
-        <v>1.346954122760031</v>
+        <v>1.346954122646961</v>
       </c>
       <c r="G125">
         <v>1.344728667814019</v>
@@ -3278,22 +3278,22 @@
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.6966382766806105</v>
+        <v>-0.6966382766806104</v>
       </c>
       <c r="C126">
         <v>-0.6854405648982729</v>
       </c>
       <c r="D126">
-        <v>-0.7035229935247934</v>
+        <v>-0.7035229935345015</v>
       </c>
       <c r="E126">
-        <v>-0.6066763399973487</v>
+        <v>-0.6066763399530221</v>
       </c>
       <c r="F126">
-        <v>-0.6942373830780011</v>
+        <v>-0.6942373798650625</v>
       </c>
       <c r="G126">
-        <v>-0.7035229938155734</v>
+        <v>-0.7035229938155736</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -3301,22 +3301,22 @@
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.6969684195469176</v>
+        <v>0.6969684195469178</v>
       </c>
       <c r="C127">
-        <v>0.659299686516474</v>
+        <v>0.6592996865164739</v>
       </c>
       <c r="D127">
-        <v>0.6066149267589882</v>
+        <v>0.60661492675691</v>
       </c>
       <c r="E127">
-        <v>0.6977988594984506</v>
+        <v>0.6977988594083938</v>
       </c>
       <c r="F127">
-        <v>0.6144762783780502</v>
+        <v>0.6144762769778932</v>
       </c>
       <c r="G127">
-        <v>0.606614926696739</v>
+        <v>0.6066149266967387</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -3324,22 +3324,22 @@
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.3870208026644519</v>
+        <v>0.3870208026644522</v>
       </c>
       <c r="C128">
-        <v>0.3617886634152812</v>
+        <v>0.361788663415281</v>
       </c>
       <c r="D128">
-        <v>0.312052981687903</v>
+        <v>0.3120529816849461</v>
       </c>
       <c r="E128">
-        <v>0.393757936798117</v>
+        <v>0.3937579367386552</v>
       </c>
       <c r="F128">
-        <v>0.3206910403537265</v>
+        <v>0.3206910392671689</v>
       </c>
       <c r="G128">
-        <v>0.3120529815993338</v>
+        <v>0.3120529815993335</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -3350,19 +3350,19 @@
         <v>1.028086569253893</v>
       </c>
       <c r="C129">
-        <v>0.9823511166820704</v>
+        <v>0.9823511166820703</v>
       </c>
       <c r="D129">
-        <v>0.914850451282896</v>
+        <v>0.9148504512832006</v>
       </c>
       <c r="E129">
-        <v>0.9916304574325974</v>
+        <v>0.99163045731577</v>
       </c>
       <c r="F129">
-        <v>0.92161419145642</v>
+        <v>0.9216141888478964</v>
       </c>
       <c r="G129">
-        <v>0.9148504512920097</v>
+        <v>0.9148504512920095</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -3370,22 +3370,22 @@
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.6078970742642336</v>
+        <v>0.6078970742642339</v>
       </c>
       <c r="C130">
-        <v>0.5775309502014433</v>
+        <v>0.5775309502014432</v>
       </c>
       <c r="D130">
-        <v>0.5272008189239157</v>
+        <v>0.5272008189223751</v>
       </c>
       <c r="E130">
-        <v>0.6033653192934513</v>
+        <v>0.6033653192142765</v>
       </c>
       <c r="F130">
-        <v>0.534675846819904</v>
+        <v>0.5346758451963983</v>
       </c>
       <c r="G130">
-        <v>0.5272008188777706</v>
+        <v>0.5272008188777705</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -3399,13 +3399,13 @@
         <v>1.173784075884521</v>
       </c>
       <c r="D131">
-        <v>1.093562624528784</v>
+        <v>1.093562624529464</v>
       </c>
       <c r="E131">
-        <v>1.177606639830571</v>
+        <v>1.177606639695504</v>
       </c>
       <c r="F131">
-        <v>1.10019606533172</v>
+        <v>1.100196062517354</v>
       </c>
       <c r="G131">
         <v>1.093562624549153</v>
@@ -3419,19 +3419,19 @@
         <v>1.598681530674912</v>
       </c>
       <c r="C132">
-        <v>1.540702752297237</v>
+        <v>1.540702752297236</v>
       </c>
       <c r="D132">
-        <v>1.442758347231516</v>
+        <v>1.442758347233725</v>
       </c>
       <c r="E132">
-        <v>1.526769907404598</v>
+        <v>1.526769907238487</v>
       </c>
       <c r="F132">
-        <v>1.446706627708468</v>
+        <v>1.446706624823081</v>
       </c>
       <c r="G132">
-        <v>1.442758347297662</v>
+        <v>1.442758347297661</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -3439,22 +3439,22 @@
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.6072637932384074</v>
+        <v>0.6072637932384076</v>
       </c>
       <c r="C133">
-        <v>0.5764534245432894</v>
+        <v>0.5764534245432893</v>
       </c>
       <c r="D133">
-        <v>0.5344371984226693</v>
+        <v>0.5344371984189857</v>
       </c>
       <c r="E133">
-        <v>0.6418902695529569</v>
+        <v>0.6418902694720925</v>
       </c>
       <c r="F133">
-        <v>0.5421173027735249</v>
+        <v>0.5421173025151302</v>
       </c>
       <c r="G133">
-        <v>0.5344371983123352</v>
+        <v>0.534437198312335</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -3462,22 +3462,22 @@
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.8986143343188442</v>
+        <v>0.8986143343188445</v>
       </c>
       <c r="C134">
-        <v>0.8675772290147231</v>
+        <v>0.867577229014723</v>
       </c>
       <c r="D134">
-        <v>0.8147706789853357</v>
+        <v>0.8147706789823612</v>
       </c>
       <c r="E134">
-        <v>0.9310809304565362</v>
+        <v>0.9310809303485412</v>
       </c>
       <c r="F134">
-        <v>0.8213555170269131</v>
+        <v>0.8213555166819784</v>
       </c>
       <c r="G134">
-        <v>0.814770678896243</v>
+        <v>0.8147706788962431</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -3485,22 +3485,22 @@
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.6362090794521562</v>
+        <v>0.6362090794521565</v>
       </c>
       <c r="C135">
         <v>0.6092456956756687</v>
       </c>
       <c r="D135">
-        <v>0.5693298554692254</v>
+        <v>0.5693298554643941</v>
       </c>
       <c r="E135">
-        <v>0.6964657400536347</v>
+        <v>0.6964657399674843</v>
       </c>
       <c r="F135">
-        <v>0.5772061280329059</v>
+        <v>0.5772061284748612</v>
       </c>
       <c r="G135">
-        <v>0.5693298553245141</v>
+        <v>0.5693298553245139</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -3508,22 +3508,22 @@
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.3294291902216972</v>
+        <v>0.3294291902216974</v>
       </c>
       <c r="C136">
-        <v>0.3119763715704749</v>
+        <v>0.3119763715704748</v>
       </c>
       <c r="D136">
-        <v>0.289547377336009</v>
+        <v>0.2895473773299784</v>
       </c>
       <c r="E136">
-        <v>0.4132712384900299</v>
+        <v>0.4132712384330548</v>
       </c>
       <c r="F136">
-        <v>0.2974971757671604</v>
+        <v>0.2974971769876243</v>
       </c>
       <c r="G136">
-        <v>0.289547377155381</v>
+        <v>0.2895473771553809</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -3531,22 +3531,22 @@
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.1226310932253567</v>
+        <v>-0.1226310932253565</v>
       </c>
       <c r="C137">
         <v>-0.1351340975547272</v>
       </c>
       <c r="D137">
-        <v>-0.1454423725938438</v>
+        <v>-0.1454423726014946</v>
       </c>
       <c r="E137">
-        <v>-0.0292434585301727</v>
+        <v>-0.02924345854463026</v>
       </c>
       <c r="F137">
-        <v>-0.1368156843352586</v>
+        <v>-0.1368156822683451</v>
       </c>
       <c r="G137">
-        <v>-0.1454423728230008</v>
+        <v>-0.1454423728230009</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -3554,22 +3554,22 @@
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.2438751146211759</v>
+        <v>0.2438751146211763</v>
       </c>
       <c r="C138">
-        <v>0.2205344162362815</v>
+        <v>0.2205344162362814</v>
       </c>
       <c r="D138">
-        <v>0.1917651820681432</v>
+        <v>0.191765182062858</v>
       </c>
       <c r="E138">
-        <v>0.2999994605156397</v>
+        <v>0.2999994604651242</v>
       </c>
       <c r="F138">
-        <v>0.2001269864250633</v>
+        <v>0.2001269869987828</v>
       </c>
       <c r="G138">
-        <v>0.1917651819098374</v>
+        <v>0.1917651819098371</v>
       </c>
     </row>
   </sheetData>

--- a/table_best_models____spi-6__test.xlsx
+++ b/table_best_models____spi-6__test.xlsx
@@ -14,12 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Observed</t>
   </si>
   <si>
     <t>Lasso ($\beta = $0.0)</t>
+  </si>
+  <si>
+    <t>Lasso ($\beta = $0.010276234596276801)</t>
   </si>
   <si>
     <t>Lasso ($\beta = $0.1)</t>
@@ -32,6 +35,9 @@
   </si>
   <si>
     <t>Lasso ($\beta = $1.5)</t>
+  </si>
+  <si>
+    <t>Lasso ($\beta = $10.0)</t>
   </si>
   <si>
     <t>Lasso ($\beta = $2.0)</t>
@@ -392,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G138"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -420,3155 +426,3983 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1.12703818</v>
       </c>
       <c r="B2">
-        <v>1.485243048243321</v>
+        <v>1.488299811601499</v>
       </c>
       <c r="C2">
-        <v>1.493535871854287</v>
+        <v>1.341360104515064</v>
       </c>
       <c r="D2">
+        <v>1.421306528448042</v>
+      </c>
+      <c r="E2">
         <v>1.516702155228137</v>
       </c>
-      <c r="E2">
-        <v>1.564949850604699</v>
-      </c>
       <c r="F2">
+        <v>1.549176759265603</v>
+      </c>
+      <c r="G2">
         <v>1.507727846669393</v>
       </c>
-      <c r="G2">
+      <c r="H2">
+        <v>1.35417173343703</v>
+      </c>
+      <c r="I2">
         <v>1.516702155360188</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>1.14030363</v>
       </c>
       <c r="B3">
-        <v>1.129050790805465</v>
+        <v>1.119892105201988</v>
       </c>
       <c r="C3">
-        <v>1.121603282575556</v>
+        <v>1.055124153281289</v>
       </c>
       <c r="D3">
+        <v>1.112492663025786</v>
+      </c>
+      <c r="E3">
         <v>1.148796427795326</v>
       </c>
-      <c r="E3">
-        <v>1.155537103170559</v>
-      </c>
       <c r="F3">
+        <v>1.207701839945585</v>
+      </c>
+      <c r="G3">
         <v>1.143591704277442</v>
       </c>
-      <c r="G3">
+      <c r="H3">
+        <v>1.000099762279913</v>
+      </c>
+      <c r="I3">
         <v>1.148796427957691</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>0.681304577</v>
       </c>
       <c r="B4">
-        <v>0.3651077762594966</v>
+        <v>0.35916574637883</v>
       </c>
       <c r="C4">
-        <v>0.3447782253104562</v>
+        <v>0.3212541435628137</v>
       </c>
       <c r="D4">
+        <v>0.3790303676999931</v>
+      </c>
+      <c r="E4">
         <v>0.3694638005058919</v>
       </c>
-      <c r="E4">
-        <v>0.3915185884153385</v>
-      </c>
       <c r="F4">
+        <v>0.4059069232809962</v>
+      </c>
+      <c r="G4">
         <v>0.3695882254246275</v>
       </c>
-      <c r="G4">
+      <c r="H4">
+        <v>0.3229182773560552</v>
+      </c>
+      <c r="I4">
         <v>0.3694638005579262</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>0.408251684</v>
       </c>
       <c r="B5">
-        <v>0.567545746684197</v>
+        <v>0.5305400233729155</v>
       </c>
       <c r="C5">
-        <v>0.5499500639004974</v>
+        <v>0.5332366989302482</v>
       </c>
       <c r="D5">
+        <v>0.5409810141885066</v>
+      </c>
+      <c r="E5">
         <v>0.5504952453091458</v>
       </c>
-      <c r="E5">
-        <v>0.5975361087281844</v>
-      </c>
       <c r="F5">
+        <v>0.6197262507007525</v>
+      </c>
+      <c r="G5">
         <v>0.5526454054199619</v>
       </c>
-      <c r="G5">
+      <c r="H5">
+        <v>0.5122972076520902</v>
+      </c>
+      <c r="I5">
         <v>0.5504952453079037</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>-0.107509787</v>
       </c>
       <c r="B6">
-        <v>-0.5851886851898387</v>
+        <v>-0.5888971910586698</v>
       </c>
       <c r="C6">
-        <v>-0.6082392106551693</v>
+        <v>-0.6902384492413709</v>
       </c>
       <c r="D6">
+        <v>-0.5648136418777786</v>
+      </c>
+      <c r="E6">
         <v>-0.6211267707602536</v>
       </c>
-      <c r="E6">
-        <v>-0.527477337327859</v>
-      </c>
       <c r="F6">
+        <v>-0.5813124571115338</v>
+      </c>
+      <c r="G6">
         <v>-0.6138927345451312</v>
       </c>
-      <c r="G6">
+      <c r="H6">
+        <v>-0.4697000551698955</v>
+      </c>
+      <c r="I6">
         <v>-0.6211267710215738</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>-0.178373341</v>
       </c>
       <c r="B7">
-        <v>-0.6507814671168103</v>
+        <v>-0.6434550990751681</v>
       </c>
       <c r="C7">
-        <v>-0.6896853529535399</v>
+        <v>-0.7532806512362853</v>
       </c>
       <c r="D7">
+        <v>-0.6416742800592723</v>
+      </c>
+      <c r="E7">
         <v>-0.6694162348402859</v>
       </c>
-      <c r="E7">
-        <v>-0.5736351738362417</v>
-      </c>
       <c r="F7">
+        <v>-0.5947090340710612</v>
+      </c>
+      <c r="G7">
         <v>-0.6635085190974659</v>
       </c>
-      <c r="G7">
+      <c r="H7">
+        <v>-0.5038300914839013</v>
+      </c>
+      <c r="I7">
         <v>-0.669416235116628</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>0.686567453</v>
       </c>
       <c r="B8">
-        <v>0.3525027105495286</v>
+        <v>0.3384812132345778</v>
       </c>
       <c r="C8">
-        <v>0.3387623656718941</v>
+        <v>0.3395674947742262</v>
       </c>
       <c r="D8">
+        <v>0.3428698371760516</v>
+      </c>
+      <c r="E8">
         <v>0.33424371264301</v>
       </c>
-      <c r="E8">
-        <v>0.4179658967952902</v>
-      </c>
       <c r="F8">
+        <v>0.4071683009710324</v>
+      </c>
+      <c r="G8">
         <v>0.3386378183839903</v>
       </c>
-      <c r="G8">
+      <c r="H8">
+        <v>0.3500335782506537</v>
+      </c>
+      <c r="I8">
         <v>0.3342437125449362</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>0.231220732</v>
       </c>
       <c r="B9">
-        <v>0.1404755715958</v>
+        <v>0.1572100530008657</v>
       </c>
       <c r="C9">
-        <v>0.139023596828325</v>
+        <v>0.1454476853349175</v>
       </c>
       <c r="D9">
+        <v>0.150577361851011</v>
+      </c>
+      <c r="E9">
         <v>0.1347901944746752</v>
       </c>
-      <c r="E9">
-        <v>0.2632334498670238</v>
-      </c>
       <c r="F9">
+        <v>0.2497451395804539</v>
+      </c>
+      <c r="G9">
         <v>0.1419478198801404</v>
       </c>
-      <c r="G9">
+      <c r="H9">
+        <v>0.2163480716730252</v>
+      </c>
+      <c r="I9">
         <v>0.1347901942606845</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>-0.017236558</v>
       </c>
       <c r="B10">
-        <v>0.01107719331568996</v>
+        <v>0.02863167766393872</v>
       </c>
       <c r="C10">
-        <v>0.006781865638772732</v>
+        <v>-0.0008942374271522502</v>
       </c>
       <c r="D10">
+        <v>0.03231494689660748</v>
+      </c>
+      <c r="E10">
         <v>0.00797864502040245</v>
       </c>
-      <c r="E10">
-        <v>0.1190177541505813</v>
-      </c>
       <c r="F10">
+        <v>0.1071697711574002</v>
+      </c>
+      <c r="G10">
         <v>0.01468114045831997</v>
       </c>
-      <c r="G10">
+      <c r="H10">
+        <v>0.09357929864657166</v>
+      </c>
+      <c r="I10">
         <v>0.007978644819038108</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>-0.7497877120000001</v>
       </c>
       <c r="B11">
-        <v>-0.2910651704897094</v>
+        <v>-0.2737373983435299</v>
       </c>
       <c r="C11">
-        <v>-0.3000067509124801</v>
+        <v>-0.3329743128170186</v>
       </c>
       <c r="D11">
+        <v>-0.26530304908987</v>
+      </c>
+      <c r="E11">
         <v>-0.2992121253521106</v>
       </c>
-      <c r="E11">
-        <v>-0.2213074703610973</v>
-      </c>
       <c r="F11">
+        <v>-0.2603564670779595</v>
+      </c>
+      <c r="G11">
         <v>-0.2931061522855191</v>
       </c>
-      <c r="G11">
+      <c r="H11">
+        <v>-0.2042803089325245</v>
+      </c>
+      <c r="I11">
         <v>-0.2992121255340722</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>-0.245343768</v>
       </c>
       <c r="B12">
-        <v>0.2497009860495077</v>
+        <v>0.2376409393979212</v>
       </c>
       <c r="C12">
-        <v>0.2379508531517658</v>
+        <v>0.2354054138706758</v>
       </c>
       <c r="D12">
+        <v>0.2534356823599774</v>
+      </c>
+      <c r="E12">
         <v>0.2384510750986476</v>
       </c>
-      <c r="E12">
-        <v>0.2897165111484691</v>
-      </c>
       <c r="F12">
+        <v>0.2689724442646475</v>
+      </c>
+      <c r="G12">
         <v>0.2415147553043837</v>
       </c>
-      <c r="G12">
+      <c r="H12">
+        <v>0.2367384293336142</v>
+      </c>
+      <c r="I12">
         <v>0.2384510750513996</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>-0.33157628</v>
       </c>
       <c r="B13">
-        <v>-0.01835459106637314</v>
+        <v>-0.01373790141975796</v>
       </c>
       <c r="C13">
-        <v>-0.02359163976299713</v>
+        <v>-0.01723719010798727</v>
       </c>
       <c r="D13">
+        <v>-0.01432464935169101</v>
+      </c>
+      <c r="E13">
         <v>-0.02211841758858413</v>
       </c>
-      <c r="E13">
-        <v>0.02536501922434924</v>
-      </c>
       <c r="F13">
+        <v>-0.01062751331263967</v>
+      </c>
+      <c r="G13">
         <v>-0.01821006173336107</v>
       </c>
-      <c r="G13">
+      <c r="H13">
+        <v>0.008285103162083252</v>
+      </c>
+      <c r="I13">
         <v>-0.02211841767252128</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>-1.121163328</v>
       </c>
       <c r="B14">
-        <v>-1.056542596886506</v>
+        <v>-1.073139186679265</v>
       </c>
       <c r="C14">
-        <v>-1.081747840565764</v>
+        <v>-1.17525204589188</v>
       </c>
       <c r="D14">
+        <v>-1.052363397037176</v>
+      </c>
+      <c r="E14">
         <v>-1.095705627396015</v>
       </c>
-      <c r="E14">
-        <v>-1.018088828641718</v>
-      </c>
       <c r="F14">
+        <v>-1.103099120471017</v>
+      </c>
+      <c r="G14">
         <v>-1.090725399690693</v>
       </c>
-      <c r="G14">
+      <c r="H14">
+        <v>-0.9165861817473864</v>
+      </c>
+      <c r="I14">
         <v>-1.095705627650736</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>-0.072537281</v>
       </c>
       <c r="B15">
-        <v>0.04019450317134282</v>
+        <v>0.04580940804576997</v>
       </c>
       <c r="C15">
-        <v>0.02991002305170126</v>
+        <v>0.01828081954445501</v>
       </c>
       <c r="D15">
+        <v>0.05354227550665881</v>
+      </c>
+      <c r="E15">
         <v>0.03235561107506157</v>
       </c>
-      <c r="E15">
-        <v>0.1048878203043993</v>
-      </c>
       <c r="F15">
+        <v>0.08401561451310291</v>
+      </c>
+      <c r="G15">
         <v>0.03710022686916348</v>
       </c>
-      <c r="G15">
+      <c r="H15">
+        <v>0.07859799028729415</v>
+      </c>
+      <c r="I15">
         <v>0.03235561095395782</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>0.309041204</v>
       </c>
       <c r="B16">
-        <v>0.4416835363440295</v>
+        <v>0.4660423820410735</v>
       </c>
       <c r="C16">
-        <v>0.4399996130268201</v>
+        <v>0.4091807344739051</v>
       </c>
       <c r="D16">
+        <v>0.4222118718277207</v>
+      </c>
+      <c r="E16">
         <v>0.4483788459117343</v>
       </c>
-      <c r="E16">
-        <v>0.5524293977833663</v>
-      </c>
       <c r="F16">
+        <v>0.5363350708952966</v>
+      </c>
+      <c r="G16">
         <v>0.4515573795158676</v>
       </c>
-      <c r="G16">
+      <c r="H16">
+        <v>0.465660167094667</v>
+      </c>
+      <c r="I16">
         <v>0.4483788457919803</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>0.418836013</v>
       </c>
       <c r="B17">
-        <v>0.347638948112918</v>
+        <v>0.3771471243115379</v>
       </c>
       <c r="C17">
-        <v>0.3544564327259181</v>
+        <v>0.3305844860913285</v>
       </c>
       <c r="D17">
+        <v>0.3464013077401258</v>
+      </c>
+      <c r="E17">
         <v>0.3529158141877619</v>
       </c>
-      <c r="E17">
-        <v>0.4595216317290883</v>
-      </c>
       <c r="F17">
+        <v>0.476917956832671</v>
+      </c>
+      <c r="G17">
         <v>0.3574532536248114</v>
       </c>
-      <c r="G17">
+      <c r="H17">
+        <v>0.3937311566632297</v>
+      </c>
+      <c r="I17">
         <v>0.3529158140400203</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>-0.260493354</v>
       </c>
       <c r="B18">
-        <v>-0.5209464615914836</v>
+        <v>-0.4993338054099349</v>
       </c>
       <c r="C18">
-        <v>-0.5604111733622981</v>
+        <v>-0.5012657304268997</v>
       </c>
       <c r="D18">
+        <v>-0.4914178749555396</v>
+      </c>
+      <c r="E18">
         <v>-0.5560519154182924</v>
       </c>
-      <c r="E18">
-        <v>-0.4320613481101228</v>
-      </c>
       <c r="F18">
+        <v>-0.4287162725379494</v>
+      </c>
+      <c r="G18">
         <v>-0.5460942307726342</v>
       </c>
-      <c r="G18">
+      <c r="H18">
+        <v>-0.3773902713360218</v>
+      </c>
+      <c r="I18">
         <v>-0.5560519157342444</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>-0.054560058</v>
       </c>
       <c r="B19">
-        <v>-0.07419109071046141</v>
+        <v>-0.06952596244861921</v>
       </c>
       <c r="C19">
-        <v>-0.1093441211982303</v>
+        <v>-0.1230335026287925</v>
       </c>
       <c r="D19">
+        <v>-0.08485145486449609</v>
+      </c>
+      <c r="E19">
         <v>-0.1037446085666946</v>
       </c>
-      <c r="E19">
-        <v>-0.004692513132042019</v>
-      </c>
       <c r="F19">
+        <v>0.001833135909045547</v>
+      </c>
+      <c r="G19">
         <v>-0.09697107311447944</v>
       </c>
-      <c r="G19">
+      <c r="H19">
+        <v>-0.006429774504978808</v>
+      </c>
+      <c r="I19">
         <v>-0.1037446087687773</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>-0.134306691</v>
       </c>
       <c r="B20">
-        <v>-0.2132496583038351</v>
+        <v>-0.1818293456796672</v>
       </c>
       <c r="C20">
-        <v>-0.2202566755288401</v>
+        <v>-0.2458458511513855</v>
       </c>
       <c r="D20">
+        <v>-0.18322819222721</v>
+      </c>
+      <c r="E20">
         <v>-0.212286954405368</v>
       </c>
-      <c r="E20">
-        <v>-0.1302172435220105</v>
-      </c>
       <c r="F20">
+        <v>-0.1398423688360324</v>
+      </c>
+      <c r="G20">
         <v>-0.2062040681637761</v>
       </c>
-      <c r="G20">
+      <c r="H20">
+        <v>-0.118662983464596</v>
+      </c>
+      <c r="I20">
         <v>-0.2122869545872724</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>-1.373687226</v>
       </c>
       <c r="B21">
-        <v>-1.30236690623178</v>
+        <v>-1.371036394592098</v>
       </c>
       <c r="C21">
-        <v>-1.387553277518713</v>
+        <v>-1.415661531121315</v>
       </c>
       <c r="D21">
+        <v>-1.324339135784553</v>
+      </c>
+      <c r="E21">
         <v>-1.413490149154665</v>
       </c>
-      <c r="E21">
-        <v>-1.302654242617275</v>
-      </c>
       <c r="F21">
+        <v>-1.340808767415582</v>
+      </c>
+      <c r="G21">
         <v>-1.407537408110368</v>
       </c>
-      <c r="G21">
+      <c r="H21">
+        <v>-1.169342754010579</v>
+      </c>
+      <c r="I21">
         <v>-1.413490149501374</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>-2.021776558</v>
       </c>
       <c r="B22">
-        <v>-1.798532992782371</v>
+        <v>-1.829351095964509</v>
       </c>
       <c r="C22">
-        <v>-1.879940830023662</v>
+        <v>-1.801807315838797</v>
       </c>
       <c r="D22">
+        <v>-1.807618661455657</v>
+      </c>
+      <c r="E22">
         <v>-1.879556964672188</v>
       </c>
-      <c r="E22">
-        <v>-1.774509605169639</v>
-      </c>
       <c r="F22">
+        <v>-1.705854326059518</v>
+      </c>
+      <c r="G22">
         <v>-1.875805003299412</v>
       </c>
-      <c r="G22">
+      <c r="H22">
+        <v>-1.570068567331555</v>
+      </c>
+      <c r="I22">
         <v>-1.879556965093402</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>-2.768247153</v>
       </c>
       <c r="B23">
-        <v>-2.166100991400718</v>
+        <v>-2.215653765539467</v>
       </c>
       <c r="C23">
-        <v>-2.265865519906338</v>
+        <v>-2.196613877718754</v>
       </c>
       <c r="D23">
+        <v>-2.133376975606827</v>
+      </c>
+      <c r="E23">
         <v>-2.269473877601049</v>
       </c>
-      <c r="E23">
-        <v>-2.127622741080561</v>
-      </c>
       <c r="F23">
+        <v>-2.039448963493358</v>
+      </c>
+      <c r="G23">
         <v>-2.268067710843358</v>
       </c>
-      <c r="G23">
+      <c r="H23">
+        <v>-1.887999399518055</v>
+      </c>
+      <c r="I23">
         <v>-2.269473878129201</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>-1.617556037</v>
       </c>
       <c r="B24">
-        <v>-1.357819280384237</v>
+        <v>-1.276181817382963</v>
       </c>
       <c r="C24">
-        <v>-1.364527744466825</v>
+        <v>-1.385399966942535</v>
       </c>
       <c r="D24">
+        <v>-1.317009613318864</v>
+      </c>
+      <c r="E24">
         <v>-1.318541558060269</v>
       </c>
-      <c r="E24">
-        <v>-1.216771289991243</v>
-      </c>
       <c r="F24">
+        <v>-1.21213279867102</v>
+      </c>
+      <c r="G24">
         <v>-1.313023836694064</v>
       </c>
-      <c r="G24">
+      <c r="H24">
+        <v>-1.056215241812866</v>
+      </c>
+      <c r="I24">
         <v>-1.318541558459268</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>-1.780869488</v>
       </c>
       <c r="B25">
-        <v>-1.881618594994345</v>
+        <v>-1.911654102357302</v>
       </c>
       <c r="C25">
-        <v>-1.977521634549571</v>
+        <v>-1.90506214924382</v>
       </c>
       <c r="D25">
+        <v>-1.852249064161419</v>
+      </c>
+      <c r="E25">
         <v>-1.946511454713837</v>
       </c>
-      <c r="E25">
-        <v>-1.788432855515553</v>
-      </c>
       <c r="F25">
+        <v>-1.767482356693216</v>
+      </c>
+      <c r="G25">
         <v>-1.943883000014115</v>
       </c>
-      <c r="G25">
+      <c r="H25">
+        <v>-1.606673167847043</v>
+      </c>
+      <c r="I25">
         <v>-1.946511455195074</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>-1.300452484</v>
       </c>
       <c r="B26">
-        <v>-1.513877339977102</v>
+        <v>-1.446096275617428</v>
       </c>
       <c r="C26">
-        <v>-1.545364328194704</v>
+        <v>-1.507634363867087</v>
       </c>
       <c r="D26">
+        <v>-1.481375915517199</v>
+      </c>
+      <c r="E26">
         <v>-1.503298142389604</v>
       </c>
-      <c r="E26">
-        <v>-1.392865982752522</v>
-      </c>
       <c r="F26">
+        <v>-1.342228527536268</v>
+      </c>
+      <c r="G26">
         <v>-1.497608763627635</v>
       </c>
-      <c r="G26">
+      <c r="H26">
+        <v>-1.20728433394016</v>
+      </c>
+      <c r="I26">
         <v>-1.503298142833513</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>-1.77117984</v>
       </c>
       <c r="B27">
-        <v>-1.724260527293836</v>
+        <v>-1.68787576505008</v>
       </c>
       <c r="C27">
-        <v>-1.772283851343945</v>
+        <v>-1.688788603587561</v>
       </c>
       <c r="D27">
+        <v>-1.709211549558214</v>
+      </c>
+      <c r="E27">
         <v>-1.718627071397784</v>
       </c>
-      <c r="E27">
-        <v>-1.627464920492307</v>
-      </c>
       <c r="F27">
+        <v>-1.553642930927492</v>
+      </c>
+      <c r="G27">
         <v>-1.716857009471103</v>
       </c>
-      <c r="G27">
+      <c r="H27">
+        <v>-1.437356107245792</v>
+      </c>
+      <c r="I27">
         <v>-1.718627071777103</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>-1.377645584</v>
       </c>
       <c r="B28">
-        <v>-1.32440314584584</v>
+        <v>-1.2967598048962</v>
       </c>
       <c r="C28">
-        <v>-1.335313889419356</v>
+        <v>-1.432451810758514</v>
       </c>
       <c r="D28">
+        <v>-1.334876323041389</v>
+      </c>
+      <c r="E28">
         <v>-1.298943040867929</v>
       </c>
-      <c r="E28">
-        <v>-1.248704126220479</v>
-      </c>
       <c r="F28">
+        <v>-1.283857473917002</v>
+      </c>
+      <c r="G28">
         <v>-1.297970867506873</v>
       </c>
-      <c r="G28">
+      <c r="H28">
+        <v>-1.107639669997046</v>
+      </c>
+      <c r="I28">
         <v>-1.29894304111533</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>-0.193821668</v>
       </c>
       <c r="B29">
-        <v>-0.01946395191569573</v>
+        <v>-0.0273814229895061</v>
       </c>
       <c r="C29">
-        <v>-0.02282735328476219</v>
+        <v>-0.03199793498505249</v>
       </c>
       <c r="D29">
+        <v>-0.001956287617051383</v>
+      </c>
+      <c r="E29">
         <v>-0.02203107758161368</v>
       </c>
-      <c r="E29">
-        <v>0.01709140315561335</v>
-      </c>
       <c r="F29">
+        <v>-0.009226763556054784</v>
+      </c>
+      <c r="G29">
         <v>-0.01834020191340523</v>
       </c>
-      <c r="G29">
+      <c r="H29">
+        <v>0.003788910241287226</v>
+      </c>
+      <c r="I29">
         <v>-0.02203107765149423</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>-0.135364639</v>
       </c>
       <c r="B30">
-        <v>0.492713305031342</v>
+        <v>0.4959672388100268</v>
       </c>
       <c r="C30">
-        <v>0.500669473283668</v>
+        <v>0.5301872831077008</v>
       </c>
       <c r="D30">
+        <v>0.5076457189143245</v>
+      </c>
+      <c r="E30">
         <v>0.5045338886552546</v>
       </c>
-      <c r="E30">
-        <v>0.5445470675891175</v>
-      </c>
       <c r="F30">
+        <v>0.5052053363459291</v>
+      </c>
+      <c r="G30">
         <v>0.5051317269359193</v>
       </c>
-      <c r="G30">
+      <c r="H30">
+        <v>0.4536106628870165</v>
+      </c>
+      <c r="I30">
         <v>0.504533888673678</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>-0.360498282</v>
       </c>
       <c r="B31">
-        <v>0.2224382189839598</v>
+        <v>0.2032159024474373</v>
       </c>
       <c r="C31">
-        <v>0.2149546686359524</v>
+        <v>0.236312283248309</v>
       </c>
       <c r="D31">
+        <v>0.2321271228330206</v>
+      </c>
+      <c r="E31">
         <v>0.2135717447112594</v>
       </c>
-      <c r="E31">
-        <v>0.243889540859022</v>
-      </c>
       <c r="F31">
+        <v>0.209730297568416</v>
+      </c>
+      <c r="G31">
         <v>0.2158783232681426</v>
       </c>
-      <c r="G31">
+      <c r="H31">
+        <v>0.196147436764271</v>
+      </c>
+      <c r="I31">
         <v>0.2135717446978391</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>-0.859042275</v>
       </c>
       <c r="B32">
-        <v>-0.1536828182594407</v>
+        <v>-0.1671716979816777</v>
       </c>
       <c r="C32">
-        <v>-0.1548331668896255</v>
+        <v>-0.152117599801365</v>
       </c>
       <c r="D32">
+        <v>-0.1275873774518276</v>
+      </c>
+      <c r="E32">
         <v>-0.160035650651772</v>
       </c>
-      <c r="E32">
-        <v>-0.1384760051998775</v>
-      </c>
       <c r="F32">
+        <v>-0.196899503026408</v>
+      </c>
+      <c r="G32">
         <v>-0.157219866745196</v>
       </c>
-      <c r="G32">
+      <c r="H32">
+        <v>-0.1449488236219011</v>
+      </c>
+      <c r="I32">
         <v>-0.1600356506829574</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>-0.149240493</v>
       </c>
       <c r="B33">
-        <v>0.2967749697580532</v>
+        <v>0.2768922049937208</v>
       </c>
       <c r="C33">
-        <v>0.2737616889324075</v>
+        <v>0.2863886702011349</v>
       </c>
       <c r="D33">
+        <v>0.2871972592153669</v>
+      </c>
+      <c r="E33">
         <v>0.2748657944655498</v>
       </c>
-      <c r="E33">
-        <v>0.3295892549257095</v>
-      </c>
       <c r="F33">
+        <v>0.3080085646509561</v>
+      </c>
+      <c r="G33">
         <v>0.2776965994329829</v>
       </c>
-      <c r="G33">
+      <c r="H33">
+        <v>0.2709246393952457</v>
+      </c>
+      <c r="I33">
         <v>0.2748657944173752</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>-0.236175245</v>
       </c>
       <c r="B34">
-        <v>0.189985376356034</v>
+        <v>0.2116982088645569</v>
       </c>
       <c r="C34">
-        <v>0.1961347033589012</v>
+        <v>0.1980848095410948</v>
       </c>
       <c r="D34">
+        <v>0.2096593200421611</v>
+      </c>
+      <c r="E34">
         <v>0.1985483732909573</v>
       </c>
-      <c r="E34">
-        <v>0.272693684483006</v>
-      </c>
       <c r="F34">
+        <v>0.2584003237712873</v>
+      </c>
+      <c r="G34">
         <v>0.2024790113178233</v>
       </c>
-      <c r="G34">
+      <c r="H34">
+        <v>0.2240008066592471</v>
+      </c>
+      <c r="I34">
         <v>0.198548373191559</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>-1.022433007</v>
       </c>
       <c r="B35">
-        <v>-0.5667135110014286</v>
+        <v>-0.5240410467311406</v>
       </c>
       <c r="C35">
-        <v>-0.5696893431281922</v>
+        <v>-0.5935105518548937</v>
       </c>
       <c r="D35">
+        <v>-0.5301961637137017</v>
+      </c>
+      <c r="E35">
         <v>-0.5662676921997466</v>
       </c>
-      <c r="E35">
-        <v>-0.4897066008620862</v>
-      </c>
       <c r="F35">
+        <v>-0.5235714759668169</v>
+      </c>
+      <c r="G35">
         <v>-0.5591274014556962</v>
       </c>
-      <c r="G35">
+      <c r="H35">
+        <v>-0.4320893915376179</v>
+      </c>
+      <c r="I35">
         <v>-0.5662676924253318</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>-1.53558335</v>
       </c>
       <c r="B36">
-        <v>-1.227773322240162</v>
+        <v>-1.261163305384508</v>
       </c>
       <c r="C36">
-        <v>-1.270653006467221</v>
+        <v>-1.340626446292782</v>
       </c>
       <c r="D36">
+        <v>-1.226615148691856</v>
+      </c>
+      <c r="E36">
         <v>-1.305785709379259</v>
       </c>
-      <c r="E36">
-        <v>-1.207849203887282</v>
-      </c>
       <c r="F36">
+        <v>-1.293065712645356</v>
+      </c>
+      <c r="G36">
         <v>-1.298981726671642</v>
       </c>
-      <c r="G36">
+      <c r="H36">
+        <v>-1.086618412549375</v>
+      </c>
+      <c r="I36">
         <v>-1.305785709692497</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>-1.348318065</v>
       </c>
       <c r="B37">
-        <v>-1.064242426202975</v>
+        <v>-1.114985138979105</v>
       </c>
       <c r="C37">
-        <v>-1.130177162573856</v>
+        <v>-1.157152369400006</v>
       </c>
       <c r="D37">
+        <v>-1.059745507702398</v>
+      </c>
+      <c r="E37">
         <v>-1.156831166924135</v>
       </c>
-      <c r="E37">
-        <v>-1.040678431896193</v>
-      </c>
       <c r="F37">
+        <v>-1.132812276383221</v>
+      </c>
+      <c r="G37">
         <v>-1.149446574380641</v>
       </c>
-      <c r="G37">
+      <c r="H37">
+        <v>-0.9522641906016589</v>
+      </c>
+      <c r="I37">
         <v>-1.156831167224135</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>-0.915745502</v>
       </c>
       <c r="B38">
-        <v>-0.8876635240351211</v>
+        <v>-0.8421827116166802</v>
       </c>
       <c r="C38">
-        <v>-0.8896060356429848</v>
+        <v>-0.9554660028038719</v>
       </c>
       <c r="D38">
+        <v>-0.8699740760532245</v>
+      </c>
+      <c r="E38">
         <v>-0.8963883286970923</v>
       </c>
-      <c r="E38">
-        <v>-0.8317014652225474</v>
-      </c>
       <c r="F38">
+        <v>-0.8608922271349226</v>
+      </c>
+      <c r="G38">
         <v>-0.8887761793192706</v>
       </c>
-      <c r="G38">
+      <c r="H38">
+        <v>-0.7172151926265621</v>
+      </c>
+      <c r="I38">
         <v>-0.8963883289766783</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>-0.422632353</v>
       </c>
       <c r="B39">
-        <v>-0.5394951643555804</v>
+        <v>-0.489981071290434</v>
       </c>
       <c r="C39">
-        <v>-0.5363589997368039</v>
+        <v>-0.5640190454506612</v>
       </c>
       <c r="D39">
+        <v>-0.5120802767982944</v>
+      </c>
+      <c r="E39">
         <v>-0.5233989397230787</v>
       </c>
-      <c r="E39">
-        <v>-0.4718154148449667</v>
-      </c>
       <c r="F39">
+        <v>-0.4903253230192564</v>
+      </c>
+      <c r="G39">
         <v>-0.5178093001242215</v>
       </c>
-      <c r="G39">
+      <c r="H39">
+        <v>-0.4102454988533145</v>
+      </c>
+      <c r="I39">
         <v>-0.5233989399056669</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>-0.350518731</v>
       </c>
       <c r="B40">
-        <v>-0.3754764878879412</v>
+        <v>-0.3632730073551369</v>
       </c>
       <c r="C40">
-        <v>-0.3820725654998818</v>
+        <v>-0.4178795422711568</v>
       </c>
       <c r="D40">
+        <v>-0.3664503662743569</v>
+      </c>
+      <c r="E40">
         <v>-0.365765954073866</v>
       </c>
-      <c r="E40">
-        <v>-0.348730296878745</v>
-      </c>
       <c r="F40">
+        <v>-0.379026357962915</v>
+      </c>
+      <c r="G40">
         <v>-0.3632289239047027</v>
       </c>
-      <c r="G40">
+      <c r="H40">
+        <v>-0.3147029610980733</v>
+      </c>
+      <c r="I40">
         <v>-0.3657659541422363</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>-0.128190664</v>
       </c>
       <c r="B41">
-        <v>-0.089425401873055</v>
+        <v>-0.09426223705386517</v>
       </c>
       <c r="C41">
-        <v>-0.1013256233041023</v>
+        <v>-0.10571111081343</v>
       </c>
       <c r="D41">
+        <v>-0.07407772338029074</v>
+      </c>
+      <c r="E41">
         <v>-0.09207175406624234</v>
       </c>
-      <c r="E41">
-        <v>-0.05987484249450534</v>
-      </c>
       <c r="F41">
+        <v>-0.08774943179050432</v>
+      </c>
+      <c r="G41">
         <v>-0.08934400133395981</v>
       </c>
-      <c r="G41">
+      <c r="H41">
+        <v>-0.06781027333536889</v>
+      </c>
+      <c r="I41">
         <v>-0.09207175411719923</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>0.063051911</v>
       </c>
       <c r="B42">
-        <v>-0.1446698306172572</v>
+        <v>-0.1530726106286517</v>
       </c>
       <c r="C42">
-        <v>-0.1566179866718019</v>
+        <v>-0.1716115685427664</v>
       </c>
       <c r="D42">
+        <v>-0.1725492279726458</v>
+      </c>
+      <c r="E42">
         <v>-0.1448173991280191</v>
       </c>
-      <c r="E42">
-        <v>-0.1117785630634005</v>
-      </c>
       <c r="F42">
+        <v>-0.1421488945607436</v>
+      </c>
+      <c r="G42">
         <v>-0.1421208359726126</v>
       </c>
-      <c r="G42">
+      <c r="H42">
+        <v>-0.1130940190206076</v>
+      </c>
+      <c r="I42">
         <v>-0.1448173991876516</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>0.693438741</v>
       </c>
       <c r="B43">
-        <v>0.4636039299430362</v>
+        <v>0.4830081750700919</v>
       </c>
       <c r="C43">
-        <v>0.4845716989788071</v>
+        <v>0.4969960604983814</v>
       </c>
       <c r="D43">
+        <v>0.4633880069449917</v>
+      </c>
+      <c r="E43">
         <v>0.467863231637745</v>
       </c>
-      <c r="E43">
-        <v>0.5795416908195722</v>
-      </c>
       <c r="F43">
+        <v>0.598658900713158</v>
+      </c>
+      <c r="G43">
         <v>0.4724872188323014</v>
       </c>
-      <c r="G43">
+      <c r="H43">
+        <v>0.4973142866730148</v>
+      </c>
+      <c r="I43">
         <v>0.4678632314973513</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>1.457632203</v>
       </c>
       <c r="B44">
-        <v>1.593162638395941</v>
+        <v>1.584039119972321</v>
       </c>
       <c r="C44">
-        <v>1.652009330998746</v>
+        <v>1.603481361738939</v>
       </c>
       <c r="D44">
+        <v>1.525994028516921</v>
+      </c>
+      <c r="E44">
         <v>1.598118151160312</v>
       </c>
-      <c r="E44">
-        <v>1.731145045957712</v>
-      </c>
       <c r="F44">
+        <v>1.687052793765762</v>
+      </c>
+      <c r="G44">
         <v>1.592307334004363</v>
       </c>
-      <c r="G44">
+      <c r="H44">
+        <v>1.500146955487746</v>
+      </c>
+      <c r="I44">
         <v>1.598118151136923</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>0.925767399</v>
       </c>
       <c r="B45">
-        <v>1.432685345132525</v>
+        <v>1.4370451094463</v>
       </c>
       <c r="C45">
-        <v>1.468798040621711</v>
+        <v>1.350644573351258</v>
       </c>
       <c r="D45">
+        <v>1.340107807604248</v>
+      </c>
+      <c r="E45">
         <v>1.44372502672101</v>
       </c>
-      <c r="E45">
-        <v>1.590969729068241</v>
-      </c>
       <c r="F45">
+        <v>1.517051733533639</v>
+      </c>
+      <c r="G45">
         <v>1.440357906785531</v>
       </c>
-      <c r="G45">
+      <c r="H45">
+        <v>1.373405311825143</v>
+      </c>
+      <c r="I45">
         <v>1.443725026653685</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>1.438674037</v>
       </c>
       <c r="B46">
-        <v>1.766867628521998</v>
+        <v>1.757580320307664</v>
       </c>
       <c r="C46">
-        <v>1.804685204827183</v>
+        <v>1.698116046675738</v>
       </c>
       <c r="D46">
+        <v>1.701624138363786</v>
+      </c>
+      <c r="E46">
         <v>1.776998065393159</v>
       </c>
-      <c r="E46">
-        <v>1.921432174335551</v>
-      </c>
       <c r="F46">
+        <v>1.770712758282326</v>
+      </c>
+      <c r="G46">
         <v>1.768606702057545</v>
       </c>
-      <c r="G46">
+      <c r="H46">
+        <v>1.660276632713989</v>
+      </c>
+      <c r="I46">
         <v>1.776998065378907</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>1.050844567</v>
       </c>
       <c r="B47">
-        <v>1.644955232733861</v>
+        <v>1.631117117347973</v>
       </c>
       <c r="C47">
-        <v>1.683789709477412</v>
+        <v>1.601325447228448</v>
       </c>
       <c r="D47">
+        <v>1.573601449767791</v>
+      </c>
+      <c r="E47">
         <v>1.649671869243176</v>
       </c>
-      <c r="E47">
-        <v>1.769715076220525</v>
-      </c>
       <c r="F47">
+        <v>1.693682151837131</v>
+      </c>
+      <c r="G47">
         <v>1.641955807113284</v>
       </c>
-      <c r="G47">
+      <c r="H47">
+        <v>1.531324274791887</v>
+      </c>
+      <c r="I47">
         <v>1.649671869254898</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>1.019025634</v>
       </c>
       <c r="B48">
-        <v>1.502213137154638</v>
+        <v>1.52485343305116</v>
       </c>
       <c r="C48">
-        <v>1.56754782400749</v>
+        <v>1.448064331681487</v>
       </c>
       <c r="D48">
+        <v>1.449715787679029</v>
+      </c>
+      <c r="E48">
         <v>1.540875794542574</v>
       </c>
-      <c r="E48">
-        <v>1.652000325050881</v>
-      </c>
       <c r="F48">
+        <v>1.65755313489594</v>
+      </c>
+      <c r="G48">
         <v>1.532578374389886</v>
       </c>
-      <c r="G48">
+      <c r="H48">
+        <v>1.434798540838557</v>
+      </c>
+      <c r="I48">
         <v>1.540875794549724</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>0.702825517</v>
       </c>
       <c r="B49">
-        <v>1.253227776527434</v>
+        <v>1.282242674837753</v>
       </c>
       <c r="C49">
-        <v>1.293443420109388</v>
+        <v>1.150392627420309</v>
       </c>
       <c r="D49">
+        <v>1.183395023082051</v>
+      </c>
+      <c r="E49">
         <v>1.289225485230319</v>
       </c>
-      <c r="E49">
-        <v>1.398232756186273</v>
-      </c>
       <c r="F49">
+        <v>1.416136097010809</v>
+      </c>
+      <c r="G49">
         <v>1.284465850829157</v>
       </c>
-      <c r="G49">
+      <c r="H49">
+        <v>1.212292231426532</v>
+      </c>
+      <c r="I49">
         <v>1.289225485208096</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>-0.07035459600000001</v>
       </c>
       <c r="B50">
-        <v>0.06002888129432084</v>
+        <v>0.07149476368145748</v>
       </c>
       <c r="C50">
-        <v>0.0292502444566942</v>
+        <v>-0.007935246251558864</v>
       </c>
       <c r="D50">
+        <v>0.05336242246148235</v>
+      </c>
+      <c r="E50">
         <v>0.03633569266376091</v>
       </c>
-      <c r="E50">
-        <v>0.1303675275689716</v>
-      </c>
       <c r="F50">
+        <v>0.1308784473244288</v>
+      </c>
+      <c r="G50">
         <v>0.04231465523354623</v>
       </c>
-      <c r="G50">
+      <c r="H50">
+        <v>0.107217201920545</v>
+      </c>
+      <c r="I50">
         <v>0.03633569249539677</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>-0.463687422</v>
       </c>
       <c r="B51">
-        <v>-0.4492709616644937</v>
+        <v>-0.487301426527054</v>
       </c>
       <c r="C51">
-        <v>-0.5276722379164995</v>
+        <v>-0.4788110701636118</v>
       </c>
       <c r="D51">
+        <v>-0.4800950167685546</v>
+      </c>
+      <c r="E51">
         <v>-0.5401045491999328</v>
       </c>
-      <c r="E51">
-        <v>-0.4701179289462969</v>
-      </c>
       <c r="F51">
+        <v>-0.4480277561205335</v>
+      </c>
+      <c r="G51">
         <v>-0.5309153245525323</v>
       </c>
-      <c r="G51">
+      <c r="H51">
+        <v>-0.4074898425089409</v>
+      </c>
+      <c r="I51">
         <v>-0.5401045494131879</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>-1.238225604</v>
       </c>
       <c r="B52">
-        <v>-1.219142411469479</v>
+        <v>-1.341116351492245</v>
       </c>
       <c r="C52">
-        <v>-1.355293944954085</v>
+        <v>-1.152941287934858</v>
       </c>
       <c r="D52">
+        <v>-1.292429616391446</v>
+      </c>
+      <c r="E52">
         <v>-1.39838912871324</v>
       </c>
-      <c r="E52">
-        <v>-1.303004328993536</v>
-      </c>
       <c r="F52">
+        <v>-1.213586179045625</v>
+      </c>
+      <c r="G52">
         <v>-1.388934932001371</v>
       </c>
-      <c r="G52">
+      <c r="H52">
+        <v>-1.155103628201212</v>
+      </c>
+      <c r="I52">
         <v>-1.398389129047503</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>-0.60508294</v>
       </c>
       <c r="B53">
-        <v>-0.775210849165981</v>
+        <v>-0.8217823434449576</v>
       </c>
       <c r="C53">
-        <v>-0.875358792783737</v>
+        <v>-0.7432329533900479</v>
       </c>
       <c r="D53">
+        <v>-0.831149422466838</v>
+      </c>
+      <c r="E53">
         <v>-0.8895214903560071</v>
       </c>
-      <c r="E53">
-        <v>-0.8175716982149647</v>
-      </c>
       <c r="F53">
+        <v>-0.7484826939065479</v>
+      </c>
+      <c r="G53">
         <v>-0.8793383299524847</v>
       </c>
-      <c r="G53">
+      <c r="H53">
+        <v>-0.7048248546803626</v>
+      </c>
+      <c r="I53">
         <v>-0.8895214906315004</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>-0.017287212</v>
       </c>
       <c r="B54">
-        <v>0.3453237715938149</v>
+        <v>0.3705013358754263</v>
       </c>
       <c r="C54">
-        <v>0.3400141170002451</v>
+        <v>0.2971687817890722</v>
       </c>
       <c r="D54">
+        <v>0.3366005791219492</v>
+      </c>
+      <c r="E54">
         <v>0.34498093471275</v>
       </c>
-      <c r="E54">
-        <v>0.4453552787597823</v>
-      </c>
       <c r="F54">
+        <v>0.4689450194640229</v>
+      </c>
+      <c r="G54">
         <v>0.3493786003048653</v>
       </c>
-      <c r="G54">
+      <c r="H54">
+        <v>0.3835739363901746</v>
+      </c>
+      <c r="I54">
         <v>0.3449809345736891</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>0.400816827</v>
       </c>
       <c r="B55">
-        <v>0.7955026658527563</v>
+        <v>0.8080914315432328</v>
       </c>
       <c r="C55">
-        <v>0.7983040292812712</v>
+        <v>0.7538504440309359</v>
       </c>
       <c r="D55">
+        <v>0.758185669554287</v>
+      </c>
+      <c r="E55">
         <v>0.8086227243079286</v>
       </c>
-      <c r="E55">
-        <v>0.878935895337685</v>
-      </c>
       <c r="F55">
+        <v>0.8830930660717636</v>
+      </c>
+      <c r="G55">
         <v>0.8070544634199999</v>
       </c>
-      <c r="G55">
+      <c r="H55">
+        <v>0.753594658726086</v>
+      </c>
+      <c r="I55">
         <v>0.8086227243009293</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>1.139826615</v>
       </c>
       <c r="B56">
-        <v>1.365377360623207</v>
+        <v>1.362849758975518</v>
       </c>
       <c r="C56">
-        <v>1.387109526844893</v>
+        <v>1.295741521031294</v>
       </c>
       <c r="D56">
+        <v>1.305520319967228</v>
+      </c>
+      <c r="E56">
         <v>1.382481031094116</v>
       </c>
-      <c r="E56">
-        <v>1.449330922283644</v>
-      </c>
       <c r="F56">
+        <v>1.450643640291943</v>
+      </c>
+      <c r="G56">
         <v>1.37433789945322</v>
       </c>
-      <c r="G56">
+      <c r="H56">
+        <v>1.254505369745077</v>
+      </c>
+      <c r="I56">
         <v>1.382481031169738</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>1.216172342</v>
       </c>
       <c r="B57">
-        <v>1.545449741942651</v>
+        <v>1.5402188933906</v>
       </c>
       <c r="C57">
-        <v>1.56476550274951</v>
+        <v>1.434523001223394</v>
       </c>
       <c r="D57">
+        <v>1.474935090908547</v>
+      </c>
+      <c r="E57">
         <v>1.562624408976345</v>
       </c>
-      <c r="E57">
-        <v>1.646251549695945</v>
-      </c>
       <c r="F57">
+        <v>1.595517911349871</v>
+      </c>
+      <c r="G57">
         <v>1.553473855745437</v>
       </c>
-      <c r="G57">
+      <c r="H57">
+        <v>1.423609012648654</v>
+      </c>
+      <c r="I57">
         <v>1.562624409046989</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>1.317836986</v>
       </c>
       <c r="B58">
-        <v>1.405036372166956</v>
+        <v>1.422015838492749</v>
       </c>
       <c r="C58">
-        <v>1.438268017788373</v>
+        <v>1.299250424453075</v>
       </c>
       <c r="D58">
+        <v>1.32696233201126</v>
+      </c>
+      <c r="E58">
         <v>1.433860043343879</v>
       </c>
-      <c r="E58">
-        <v>1.549409976034022</v>
-      </c>
       <c r="F58">
+        <v>1.508885076445824</v>
+      </c>
+      <c r="G58">
         <v>1.427444406517956</v>
       </c>
-      <c r="G58">
+      <c r="H58">
+        <v>1.339394120574932</v>
+      </c>
+      <c r="I58">
         <v>1.433860043334237</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>1.016928937</v>
       </c>
       <c r="B59">
-        <v>1.138453430859217</v>
+        <v>1.154646399298826</v>
       </c>
       <c r="C59">
-        <v>1.15861026916564</v>
+        <v>1.060293781945266</v>
       </c>
       <c r="D59">
+        <v>1.071733784645354</v>
+      </c>
+      <c r="E59">
         <v>1.161278833004192</v>
       </c>
-      <c r="E59">
-        <v>1.254815056268875</v>
-      </c>
       <c r="F59">
+        <v>1.253709079241698</v>
+      </c>
+      <c r="G59">
         <v>1.157162855984568</v>
       </c>
-      <c r="G59">
+      <c r="H59">
+        <v>1.083307802688208</v>
+      </c>
+      <c r="I59">
         <v>1.161278832998711</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>0.845043648</v>
       </c>
       <c r="B60">
-        <v>1.066934520664974</v>
+        <v>1.061360716692289</v>
       </c>
       <c r="C60">
-        <v>1.075423561432892</v>
+        <v>1.0161276822456</v>
       </c>
       <c r="D60">
+        <v>1.01151239779017</v>
+      </c>
+      <c r="E60">
         <v>1.069620799982834</v>
       </c>
-      <c r="E60">
-        <v>1.141773673472726</v>
-      </c>
       <c r="F60">
+        <v>1.153927249036513</v>
+      </c>
+      <c r="G60">
         <v>1.066990158643259</v>
       </c>
-      <c r="G60">
+      <c r="H60">
+        <v>0.9852384907582545</v>
+      </c>
+      <c r="I60">
         <v>1.069620800005874</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>0.6860601039999999</v>
       </c>
       <c r="B61">
-        <v>0.8346360010641313</v>
+        <v>0.8492443720214478</v>
       </c>
       <c r="C61">
-        <v>0.8367587511401126</v>
+        <v>0.7674799417149962</v>
       </c>
       <c r="D61">
+        <v>0.7867480527228243</v>
+      </c>
+      <c r="E61">
         <v>0.848080780319913</v>
       </c>
-      <c r="E61">
-        <v>0.9297100999479715</v>
-      </c>
       <c r="F61">
+        <v>0.9393366283385978</v>
+      </c>
+      <c r="G61">
         <v>0.8475251395892933</v>
       </c>
-      <c r="G61">
+      <c r="H61">
+        <v>0.7991681476847249</v>
+      </c>
+      <c r="I61">
         <v>0.8480807802948516</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>-0.019694092</v>
       </c>
       <c r="B62">
-        <v>0.1772376834698161</v>
+        <v>0.1612311282031149</v>
       </c>
       <c r="C62">
-        <v>0.1283954223521604</v>
+        <v>0.07850182662741911</v>
       </c>
       <c r="D62">
+        <v>0.1400508957079477</v>
+      </c>
+      <c r="E62">
         <v>0.1297315719186178</v>
       </c>
-      <c r="E62">
-        <v>0.2510619618083563</v>
-      </c>
       <c r="F62">
+        <v>0.2280621403889982</v>
+      </c>
+      <c r="G62">
         <v>0.1362507179728959</v>
       </c>
-      <c r="G62">
+      <c r="H62">
+        <v>0.2032431364004226</v>
+      </c>
+      <c r="I62">
         <v>0.1297315717202484</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>-0.366212842</v>
       </c>
       <c r="B63">
-        <v>-0.08416407994712341</v>
+        <v>-0.07435646118310499</v>
       </c>
       <c r="C63">
-        <v>-0.1071425800748329</v>
+        <v>-0.152082967622922</v>
       </c>
       <c r="D63">
+        <v>-0.07425207185997959</v>
+      </c>
+      <c r="E63">
         <v>-0.1092519192414586</v>
       </c>
-      <c r="E63">
-        <v>-0.00104568492282631</v>
-      </c>
       <c r="F63">
+        <v>-0.0312975496032899</v>
+      </c>
+      <c r="G63">
         <v>-0.1023715132324053</v>
       </c>
-      <c r="G63">
+      <c r="H63">
+        <v>-0.01475981205919942</v>
+      </c>
+      <c r="I63">
         <v>-0.1092519194503716</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>1.5856655</v>
       </c>
       <c r="B64">
-        <v>1.509172972568456</v>
+        <v>1.51422604405872</v>
       </c>
       <c r="C64">
-        <v>1.56697751732027</v>
+        <v>1.479047299958877</v>
       </c>
       <c r="D64">
+        <v>1.422467975400186</v>
+      </c>
+      <c r="E64">
         <v>1.520328613815599</v>
       </c>
-      <c r="E64">
-        <v>1.689572609061806</v>
-      </c>
       <c r="F64">
+        <v>1.608597886430497</v>
+      </c>
+      <c r="G64">
         <v>1.51748006650151</v>
       </c>
-      <c r="G64">
+      <c r="H64">
+        <v>1.460349367761432</v>
+      </c>
+      <c r="I64">
         <v>1.520328613715168</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>1.886598222</v>
       </c>
       <c r="B65">
-        <v>1.63807555458059</v>
+        <v>1.631928019230036</v>
       </c>
       <c r="C65">
-        <v>1.693926836157169</v>
+        <v>1.637435410073151</v>
       </c>
       <c r="D65">
+        <v>1.552219296030237</v>
+      </c>
+      <c r="E65">
         <v>1.639673115834005</v>
       </c>
-      <c r="E65">
-        <v>1.835821230855018</v>
-      </c>
       <c r="F65">
+        <v>1.671621622421648</v>
+      </c>
+      <c r="G65">
         <v>1.637189104022621</v>
       </c>
-      <c r="G65">
+      <c r="H65">
+        <v>1.583652753841474</v>
+      </c>
+      <c r="I65">
         <v>1.639673115702751</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>2.355489398</v>
       </c>
       <c r="B66">
-        <v>1.813775691337655</v>
+        <v>1.800345646651132</v>
       </c>
       <c r="C66">
-        <v>1.84658539782846</v>
+        <v>1.760762821318143</v>
       </c>
       <c r="D66">
+        <v>1.736068593588168</v>
+      </c>
+      <c r="E66">
         <v>1.809166368129535</v>
       </c>
-      <c r="E66">
-        <v>2.029069961142959</v>
-      </c>
       <c r="F66">
+        <v>1.727304142887148</v>
+      </c>
+      <c r="G66">
         <v>1.806901051992486</v>
       </c>
-      <c r="G66">
+      <c r="H66">
+        <v>1.746107940888732</v>
+      </c>
+      <c r="I66">
         <v>1.809166367982608</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>2.175336124</v>
       </c>
       <c r="B67">
-        <v>1.666623612859425</v>
+        <v>1.635104317399433</v>
       </c>
       <c r="C67">
-        <v>1.687404790953847</v>
+        <v>1.621011421169744</v>
       </c>
       <c r="D67">
+        <v>1.567617115996686</v>
+      </c>
+      <c r="E67">
         <v>1.64702309384346</v>
       </c>
-      <c r="E67">
-        <v>1.819520382161642</v>
-      </c>
       <c r="F67">
+        <v>1.617420229603066</v>
+      </c>
+      <c r="G67">
         <v>1.644268282275118</v>
       </c>
-      <c r="G67">
+      <c r="H67">
+        <v>1.566249304381254</v>
+      </c>
+      <c r="I67">
         <v>1.647023093762596</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>2.193614808</v>
       </c>
       <c r="B68">
-        <v>1.498010302455532</v>
+        <v>1.461939270463121</v>
       </c>
       <c r="C68">
-        <v>1.507674512031287</v>
+        <v>1.435950777321075</v>
       </c>
       <c r="D68">
+        <v>1.392718732490486</v>
+      </c>
+      <c r="E68">
         <v>1.473694114080541</v>
       </c>
-      <c r="E68">
-        <v>1.612865198500281</v>
-      </c>
       <c r="F68">
+        <v>1.481691139380476</v>
+      </c>
+      <c r="G68">
         <v>1.471820206529699</v>
       </c>
-      <c r="G68">
+      <c r="H68">
+        <v>1.387871669577206</v>
+      </c>
+      <c r="I68">
         <v>1.473694114038193</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>2.430700245</v>
       </c>
       <c r="B69">
-        <v>1.687830698009755</v>
+        <v>1.624018782102807</v>
       </c>
       <c r="C69">
-        <v>1.699212655827057</v>
+        <v>1.63100942536779</v>
       </c>
       <c r="D69">
+        <v>1.582568074650836</v>
+      </c>
+      <c r="E69">
         <v>1.644114338572124</v>
       </c>
-      <c r="E69">
-        <v>1.768446206738649</v>
-      </c>
       <c r="F69">
+        <v>1.646217857679755</v>
+      </c>
+      <c r="G69">
         <v>1.641560974925071</v>
       </c>
-      <c r="G69">
+      <c r="H69">
+        <v>1.526442895818487</v>
+      </c>
+      <c r="I69">
         <v>1.644114338578965</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>0.607910564</v>
       </c>
       <c r="B70">
-        <v>0.29663436207355</v>
+        <v>0.2765090213695335</v>
       </c>
       <c r="C70">
-        <v>0.2870452362394111</v>
+        <v>0.3012735772070422</v>
       </c>
       <c r="D70">
+        <v>0.3036485900111497</v>
+      </c>
+      <c r="E70">
         <v>0.2853536358283134</v>
       </c>
-      <c r="E70">
-        <v>0.3232359021870541</v>
-      </c>
       <c r="F70">
+        <v>0.2936229183003242</v>
+      </c>
+      <c r="G70">
         <v>0.287693733556888</v>
       </c>
-      <c r="G70">
+      <c r="H70">
+        <v>0.2635979272681513</v>
+      </c>
+      <c r="I70">
         <v>0.2853536358158451</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>1.103132367</v>
       </c>
       <c r="B71">
-        <v>0.554685770959386</v>
+        <v>0.6215068371628546</v>
       </c>
       <c r="C71">
-        <v>0.6161582574982739</v>
+        <v>0.5854571551649383</v>
       </c>
       <c r="D71">
+        <v>0.6108017851972777</v>
+      </c>
+      <c r="E71">
         <v>0.6173605766852209</v>
       </c>
-      <c r="E71">
-        <v>0.7118318690387299</v>
-      </c>
       <c r="F71">
+        <v>0.6920210224040524</v>
+      </c>
+      <c r="G71">
         <v>0.6205321632625458</v>
       </c>
-      <c r="G71">
+      <c r="H71">
+        <v>0.6039658777777739</v>
+      </c>
+      <c r="I71">
         <v>0.6173605766084914</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>0.726620534</v>
       </c>
       <c r="B72">
-        <v>0.2947610376446571</v>
+        <v>0.3198176377544111</v>
       </c>
       <c r="C72">
-        <v>0.2845238820827264</v>
+        <v>0.2399157223128384</v>
       </c>
       <c r="D72">
+        <v>0.2835804072989799</v>
+      </c>
+      <c r="E72">
         <v>0.289936271569697</v>
       </c>
-      <c r="E72">
-        <v>0.4074405399403105</v>
-      </c>
       <c r="F72">
+        <v>0.4216827874561695</v>
+      </c>
+      <c r="G72">
         <v>0.2954355483312811</v>
       </c>
-      <c r="G72">
+      <c r="H72">
+        <v>0.3482749541859102</v>
+      </c>
+      <c r="I72">
         <v>0.289936271392041</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>0.661591042</v>
       </c>
       <c r="B73">
-        <v>0.3139103421179898</v>
+        <v>0.3433460041367495</v>
       </c>
       <c r="C73">
-        <v>0.3043615848186959</v>
+        <v>0.2516945098868757</v>
       </c>
       <c r="D73">
+        <v>0.2930596565673489</v>
+      </c>
+      <c r="E73">
         <v>0.3089137910928706</v>
       </c>
-      <c r="E73">
-        <v>0.4491289087302043</v>
-      </c>
       <c r="F73">
+        <v>0.4619377542697602</v>
+      </c>
+      <c r="G73">
         <v>0.3153187959034364</v>
       </c>
-      <c r="G73">
+      <c r="H73">
+        <v>0.383642013665487</v>
+      </c>
+      <c r="I73">
         <v>0.3089137908749171</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>0.815347372</v>
       </c>
       <c r="B74">
-        <v>0.48916673496984</v>
+        <v>0.5251050298009438</v>
       </c>
       <c r="C74">
-        <v>0.4915803400974532</v>
+        <v>0.42205363746983</v>
       </c>
       <c r="D74">
+        <v>0.4517693266774704</v>
+      </c>
+      <c r="E74">
         <v>0.4952422280139943</v>
       </c>
-      <c r="E74">
-        <v>0.6369853468922828</v>
-      </c>
       <c r="F74">
+        <v>0.6649312871298643</v>
+      </c>
+      <c r="G74">
         <v>0.5004516714097874</v>
       </c>
-      <c r="G74">
+      <c r="H74">
+        <v>0.5494335242532218</v>
+      </c>
+      <c r="I74">
         <v>0.4952422278168784</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>0.370963237</v>
       </c>
       <c r="B75">
-        <v>0.2062618862773706</v>
+        <v>0.2434352367629462</v>
       </c>
       <c r="C75">
-        <v>0.1906459332096153</v>
+        <v>0.1362421429489492</v>
       </c>
       <c r="D75">
+        <v>0.2002028276718891</v>
+      </c>
+      <c r="E75">
         <v>0.1961758475404107</v>
       </c>
-      <c r="E75">
-        <v>0.3586783190799099</v>
-      </c>
       <c r="F75">
+        <v>0.3711518852719478</v>
+      </c>
+      <c r="G75">
         <v>0.2041654088709071</v>
       </c>
-      <c r="G75">
+      <c r="H75">
+        <v>0.3062646361464399</v>
+      </c>
+      <c r="I75">
         <v>0.1961758472620036</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>0.75714769</v>
       </c>
       <c r="B76">
-        <v>0.4562479322330476</v>
+        <v>0.4993139018506486</v>
       </c>
       <c r="C76">
-        <v>0.444221120894795</v>
+        <v>0.3488143450987213</v>
       </c>
       <c r="D76">
+        <v>0.4730130150466736</v>
+      </c>
+      <c r="E76">
         <v>0.4630536353666997</v>
       </c>
-      <c r="E76">
-        <v>0.6167084569624599</v>
-      </c>
       <c r="F76">
+        <v>0.644548530877358</v>
+      </c>
+      <c r="G76">
         <v>0.4682698186473606</v>
       </c>
-      <c r="G76">
+      <c r="H76">
+        <v>0.532027354280267</v>
+      </c>
+      <c r="I76">
         <v>0.463053635141726</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>0.130291626</v>
       </c>
       <c r="B77">
-        <v>-0.1943148504390999</v>
+        <v>-0.1946142526251225</v>
       </c>
       <c r="C77">
-        <v>-0.2391768288381756</v>
+        <v>-0.253322059873598</v>
       </c>
       <c r="D77">
+        <v>-0.1928995180525944</v>
+      </c>
+      <c r="E77">
         <v>-0.2414577946127049</v>
       </c>
-      <c r="E77">
-        <v>-0.1439787461278041</v>
-      </c>
       <c r="F77">
+        <v>-0.1509016599632591</v>
+      </c>
+      <c r="G77">
         <v>-0.2334055372434835</v>
       </c>
-      <c r="G77">
+      <c r="H77">
+        <v>-0.1297584223915754</v>
+      </c>
+      <c r="I77">
         <v>-0.2414577948293587</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>-0.109629176</v>
       </c>
       <c r="B78">
-        <v>-0.2875798931298143</v>
+        <v>-0.2946201128659857</v>
       </c>
       <c r="C78">
-        <v>-0.3296630713764244</v>
+        <v>-0.3718341532963089</v>
       </c>
       <c r="D78">
+        <v>-0.29064817205467</v>
+      </c>
+      <c r="E78">
         <v>-0.3333028987825102</v>
       </c>
-      <c r="E78">
-        <v>-0.2495127378140624</v>
-      </c>
       <c r="F78">
+        <v>-0.2866072447831352</v>
+      </c>
+      <c r="G78">
         <v>-0.3266058636035509</v>
       </c>
-      <c r="G78">
+      <c r="H78">
+        <v>-0.2280148676223125</v>
+      </c>
+      <c r="I78">
         <v>-0.3333028989809883</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>0.913137665</v>
       </c>
       <c r="B79">
-        <v>0.6139804440820888</v>
+        <v>0.6236242721688916</v>
       </c>
       <c r="C79">
-        <v>0.6176720964570575</v>
+        <v>0.5927043828751117</v>
       </c>
       <c r="D79">
+        <v>0.5971301749824593</v>
+      </c>
+      <c r="E79">
         <v>0.6210515864201123</v>
       </c>
-      <c r="E79">
-        <v>0.7042381667795514</v>
-      </c>
       <c r="F79">
+        <v>0.6852530318361352</v>
+      </c>
+      <c r="G79">
         <v>0.6232950004449396</v>
       </c>
-      <c r="G79">
+      <c r="H79">
+        <v>0.5973065739246295</v>
+      </c>
+      <c r="I79">
         <v>0.6210515863658995</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>0.9945061630000001</v>
       </c>
       <c r="B80">
-        <v>0.7267426119348185</v>
+        <v>0.7591380337070708</v>
       </c>
       <c r="C80">
-        <v>0.7664165033213903</v>
+        <v>0.7470835688489592</v>
       </c>
       <c r="D80">
+        <v>0.7265197857943456</v>
+      </c>
+      <c r="E80">
         <v>0.7602481110163107</v>
       </c>
-      <c r="E80">
-        <v>0.8578591023304774</v>
-      </c>
       <c r="F80">
+        <v>0.8157807494219389</v>
+      </c>
+      <c r="G80">
         <v>0.7628405580879798</v>
       </c>
-      <c r="G80">
+      <c r="H80">
+        <v>0.7288509245438843</v>
+      </c>
+      <c r="I80">
         <v>0.7602481109560943</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>1.203316887</v>
       </c>
       <c r="B81">
-        <v>1.314925169137502</v>
+        <v>0.8427213577469657</v>
       </c>
       <c r="C81">
-        <v>0.8633047377019742</v>
+        <v>0.8477309838798961</v>
       </c>
       <c r="D81">
+        <v>0.8117399194190793</v>
+      </c>
+      <c r="E81">
         <v>0.8474574159571105</v>
       </c>
-      <c r="E81">
-        <v>0.9467076335049883</v>
-      </c>
       <c r="F81">
+        <v>0.9163382400087725</v>
+      </c>
+      <c r="G81">
         <v>0.8500584917402669</v>
       </c>
-      <c r="G81">
+      <c r="H81">
+        <v>0.8084987330053055</v>
+      </c>
+      <c r="I81">
         <v>0.8474574159035522</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>0.382738146</v>
       </c>
       <c r="B82">
-        <v>0.1164917328190287</v>
+        <v>0.07827643072432054</v>
       </c>
       <c r="C82">
-        <v>0.106062000729069</v>
+        <v>0.1395531139910058</v>
       </c>
       <c r="D82">
+        <v>0.1320761871530138</v>
+      </c>
+      <c r="E82">
         <v>0.08434903715505628</v>
       </c>
-      <c r="E82">
-        <v>0.1697853710055214</v>
-      </c>
       <c r="F82">
+        <v>0.1155554131639938</v>
+      </c>
+      <c r="G82">
         <v>0.09119648157355723</v>
       </c>
-      <c r="G82">
+      <c r="H82">
+        <v>0.1262623856393701</v>
+      </c>
+      <c r="I82">
         <v>0.08434903702479254</v>
       </c>
     </row>
-    <row r="83" spans="1:7">
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>1.084617502</v>
       </c>
       <c r="B83">
-        <v>0.9049136969350147</v>
+        <v>0.8113781580617371</v>
       </c>
       <c r="C83">
-        <v>0.8709372067686852</v>
+        <v>0.9261328304221492</v>
       </c>
       <c r="D83">
+        <v>0.8269363472760247</v>
+      </c>
+      <c r="E83">
         <v>0.8301067790552162</v>
       </c>
-      <c r="E83">
-        <v>0.9358495196887017</v>
-      </c>
       <c r="F83">
+        <v>0.8444865946937131</v>
+      </c>
+      <c r="G83">
         <v>0.8357440515118496</v>
       </c>
-      <c r="G83">
+      <c r="H83">
+        <v>0.7919903953903598</v>
+      </c>
+      <c r="I83">
         <v>0.8301067789942023</v>
       </c>
     </row>
-    <row r="84" spans="1:7">
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>0.465588453</v>
       </c>
       <c r="B84">
-        <v>0.3720858058061073</v>
+        <v>0.280167623417605</v>
       </c>
       <c r="C84">
-        <v>0.3464197760545254</v>
+        <v>0.4389916260521705</v>
       </c>
       <c r="D84">
+        <v>0.3592332323566326</v>
+      </c>
+      <c r="E84">
         <v>0.3082385845407511</v>
       </c>
-      <c r="E84">
-        <v>0.4008473202282705</v>
-      </c>
       <c r="F84">
+        <v>0.3441985328533933</v>
+      </c>
+      <c r="G84">
         <v>0.3163802948880962</v>
       </c>
-      <c r="G84">
+      <c r="H84">
+        <v>0.3264627763791657</v>
+      </c>
+      <c r="I84">
         <v>0.3082385844304429</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>-0.594869934</v>
       </c>
       <c r="B85">
-        <v>-0.7323556504184566</v>
+        <v>-0.7303927659250204</v>
       </c>
       <c r="C85">
-        <v>-0.728978625827033</v>
+        <v>-0.7465076598219935</v>
       </c>
       <c r="D85">
+        <v>-0.681884964371716</v>
+      </c>
+      <c r="E85">
         <v>-0.739572172314785</v>
       </c>
-      <c r="E85">
-        <v>-0.6281414090964353</v>
-      </c>
       <c r="F85">
+        <v>-0.7186477712891075</v>
+      </c>
+      <c r="G85">
         <v>-0.7301622123906881</v>
       </c>
-      <c r="G85">
+      <c r="H85">
+        <v>-0.5649994981457315</v>
+      </c>
+      <c r="I85">
         <v>-0.7395721726215545</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>-0.876294891</v>
       </c>
       <c r="B86">
-        <v>-1.089883831314526</v>
+        <v>-1.055511842031063</v>
       </c>
       <c r="C86">
-        <v>-1.077416109605919</v>
+        <v>-1.143395399825823</v>
       </c>
       <c r="D86">
+        <v>-1.03853853297684</v>
+      </c>
+      <c r="E86">
         <v>-1.077197345521126</v>
       </c>
-      <c r="E86">
-        <v>-0.9634351908411571</v>
-      </c>
       <c r="F86">
+        <v>-1.060943960013575</v>
+      </c>
+      <c r="G86">
         <v>-1.068159190046084</v>
       </c>
-      <c r="G86">
+      <c r="H86">
+        <v>-0.8512249958528417</v>
+      </c>
+      <c r="I86">
         <v>-1.077197345892909</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>-1.298027516</v>
       </c>
       <c r="B87">
-        <v>-1.533583001259031</v>
+        <v>-1.47090743326283</v>
       </c>
       <c r="C87">
-        <v>-1.510710713329284</v>
+        <v>-1.613215351971269</v>
       </c>
       <c r="D87">
+        <v>-1.477016854869387</v>
+      </c>
+      <c r="E87">
         <v>-1.510612604521961</v>
       </c>
-      <c r="E87">
-        <v>-1.381095185560395</v>
-      </c>
       <c r="F87">
+        <v>-1.492114973436288</v>
+      </c>
+      <c r="G87">
         <v>-1.500927309797049</v>
       </c>
-      <c r="G87">
+      <c r="H87">
+        <v>-1.210857452043543</v>
+      </c>
+      <c r="I87">
         <v>-1.510612604997502</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>-1.033099513</v>
       </c>
       <c r="B88">
-        <v>-0.8811332632401871</v>
+        <v>-0.8536078719302608</v>
       </c>
       <c r="C88">
-        <v>-0.8788205124355835</v>
+        <v>-0.8999923682660649</v>
       </c>
       <c r="D88">
+        <v>-0.8222024768943212</v>
+      </c>
+      <c r="E88">
         <v>-0.8748256139086575</v>
       </c>
-      <c r="E88">
-        <v>-0.7508179408452476</v>
-      </c>
       <c r="F88">
+        <v>-0.8438698256050454</v>
+      </c>
+      <c r="G88">
         <v>-0.8652701731730701</v>
       </c>
-      <c r="G88">
+      <c r="H88">
+        <v>-0.6717358806663325</v>
+      </c>
+      <c r="I88">
         <v>-0.8748256142580723</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>-1.477734207</v>
       </c>
       <c r="B89">
-        <v>-1.895503650782232</v>
+        <v>-1.366460049803755</v>
       </c>
       <c r="C89">
-        <v>-1.451835529704324</v>
+        <v>-1.993367616844387</v>
       </c>
       <c r="D89">
+        <v>-1.878521221834643</v>
+      </c>
+      <c r="E89">
         <v>-1.456475389944283</v>
       </c>
-      <c r="E89">
-        <v>-1.761639506214912</v>
-      </c>
       <c r="F89">
+        <v>-1.46133298002621</v>
+      </c>
+      <c r="G89">
         <v>-1.447590706681328</v>
       </c>
-      <c r="G89">
+      <c r="H89">
+        <v>-1.186243989260426</v>
+      </c>
+      <c r="I89">
         <v>-1.456475390361658</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>0.138019302</v>
       </c>
       <c r="B90">
-        <v>-0.2961102085651591</v>
+        <v>-0.3173117695066338</v>
       </c>
       <c r="C90">
-        <v>-0.3025081138594918</v>
+        <v>-0.2604620760436799</v>
       </c>
       <c r="D90">
+        <v>-0.2499011845274312</v>
+      </c>
+      <c r="E90">
         <v>-0.3229757127764273</v>
       </c>
-      <c r="E90">
-        <v>-0.2182078667432018</v>
-      </c>
       <c r="F90">
+        <v>-0.2988994650394377</v>
+      </c>
+      <c r="G90">
         <v>-0.3138595997665236</v>
       </c>
-      <c r="G90">
+      <c r="H90">
+        <v>-0.2138649635419386</v>
+      </c>
+      <c r="I90">
         <v>-0.3229757130020044</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>0.386052651</v>
       </c>
       <c r="B91">
-        <v>0.01233946919272936</v>
+        <v>-0.05604564719544915</v>
       </c>
       <c r="C91">
-        <v>0.0007469159904777908</v>
+        <v>0.07912048194848159</v>
       </c>
       <c r="D91">
+        <v>0.04090745214686946</v>
+      </c>
+      <c r="E91">
         <v>-0.03618732965535493</v>
       </c>
-      <c r="E91">
-        <v>0.05157538145216639</v>
-      </c>
       <c r="F91">
+        <v>-0.02601499975193322</v>
+      </c>
+      <c r="G91">
         <v>-0.02732793198563202</v>
       </c>
-      <c r="G91">
+      <c r="H91">
+        <v>0.02006818366005686</v>
+      </c>
+      <c r="I91">
         <v>-0.03618732980561857</v>
       </c>
     </row>
-    <row r="92" spans="1:7">
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>0.50370249</v>
       </c>
       <c r="B92">
-        <v>0.1473294709514325</v>
+        <v>0.05542351499587674</v>
       </c>
       <c r="C92">
-        <v>0.1320151842701534</v>
+        <v>0.2306003861242418</v>
       </c>
       <c r="D92">
+        <v>0.1755080789880037</v>
+      </c>
+      <c r="E92">
         <v>0.08740632862064752</v>
       </c>
-      <c r="E92">
-        <v>0.1671399871001706</v>
-      </c>
       <c r="F92">
+        <v>0.08947352257780494</v>
+      </c>
+      <c r="G92">
         <v>0.09626009355949236</v>
       </c>
-      <c r="G92">
+      <c r="H92">
+        <v>0.1204866020760372</v>
+      </c>
+      <c r="I92">
         <v>0.0874063285040439</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>0.997029061</v>
       </c>
       <c r="B93">
-        <v>0.4920378197052432</v>
+        <v>0.376044736801625</v>
       </c>
       <c r="C93">
-        <v>0.464742332244764</v>
+        <v>0.5798933714107419</v>
       </c>
       <c r="D93">
+        <v>0.4751923388860263</v>
+      </c>
+      <c r="E93">
         <v>0.4153074758865981</v>
       </c>
-      <c r="E93">
-        <v>0.4897513820650377</v>
-      </c>
       <c r="F93">
+        <v>0.4136285079104567</v>
+      </c>
+      <c r="G93">
         <v>0.4231793815671511</v>
       </c>
-      <c r="G93">
+      <c r="H93">
+        <v>0.4015123282405465</v>
+      </c>
+      <c r="I93">
         <v>0.4153074758288279</v>
       </c>
     </row>
-    <row r="94" spans="1:7">
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>1.133239879</v>
       </c>
       <c r="B94">
-        <v>0.5926281000020672</v>
+        <v>0.4754454228383177</v>
       </c>
       <c r="C94">
-        <v>0.5628393605900462</v>
+        <v>0.6760643988286454</v>
       </c>
       <c r="D94">
+        <v>0.56531306952143</v>
+      </c>
+      <c r="E94">
         <v>0.512972686187825</v>
       </c>
-      <c r="E94">
-        <v>0.5890332063434202</v>
-      </c>
       <c r="F94">
+        <v>0.5074988852624884</v>
+      </c>
+      <c r="G94">
         <v>0.5204700748947307</v>
       </c>
-      <c r="G94">
+      <c r="H94">
+        <v>0.48775235378743</v>
+      </c>
+      <c r="I94">
         <v>0.5129726861413428</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>0.747303563</v>
       </c>
       <c r="B95">
-        <v>0.2592866781929842</v>
+        <v>0.1650977595980936</v>
       </c>
       <c r="C95">
-        <v>0.2388943071929631</v>
+        <v>0.3319233379596528</v>
       </c>
       <c r="D95">
+        <v>0.2584802047294015</v>
+      </c>
+      <c r="E95">
         <v>0.1964855265525802</v>
       </c>
-      <c r="E95">
-        <v>0.2818641402258096</v>
-      </c>
       <c r="F95">
+        <v>0.2134823227425671</v>
+      </c>
+      <c r="G95">
         <v>0.2050735878318852</v>
       </c>
-      <c r="G95">
+      <c r="H95">
+        <v>0.2211346152825118</v>
+      </c>
+      <c r="I95">
         <v>0.1964855264413586</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>-0.324059974</v>
       </c>
       <c r="B96">
-        <v>-0.5527197158850471</v>
+        <v>-0.5758219396858522</v>
       </c>
       <c r="C96">
-        <v>-0.5468863647615186</v>
+        <v>-0.5534848993892751</v>
       </c>
       <c r="D96">
+        <v>-0.5087049236706158</v>
+      </c>
+      <c r="E96">
         <v>-0.5663158967558237</v>
       </c>
-      <c r="E96">
-        <v>-0.4744211522107438</v>
-      </c>
       <c r="F96">
+        <v>-0.5543124604684329</v>
+      </c>
+      <c r="G96">
         <v>-0.5575332476596234</v>
       </c>
-      <c r="G96">
+      <c r="H96">
+        <v>-0.4301342039770729</v>
+      </c>
+      <c r="I96">
         <v>-0.5663158970041633</v>
       </c>
     </row>
-    <row r="97" spans="1:7">
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>-0.318834909</v>
       </c>
       <c r="B97">
-        <v>-0.4338515722630755</v>
+        <v>-0.4514338840564207</v>
       </c>
       <c r="C97">
-        <v>-0.4399141066644229</v>
+        <v>-0.4169158786215997</v>
       </c>
       <c r="D97">
+        <v>-0.3796962041444349</v>
+      </c>
+      <c r="E97">
         <v>-0.4530210315020464</v>
       </c>
-      <c r="E97">
-        <v>-0.3405200682130902</v>
-      </c>
       <c r="F97">
+        <v>-0.4176506659591719</v>
+      </c>
+      <c r="G97">
         <v>-0.4436339180586509</v>
       </c>
-      <c r="G97">
+      <c r="H97">
+        <v>-0.3180998794251448</v>
+      </c>
+      <c r="I97">
         <v>-0.4530210317629816</v>
       </c>
     </row>
-    <row r="98" spans="1:7">
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>-0.489685706</v>
       </c>
       <c r="B98">
-        <v>-0.5714735988950828</v>
+        <v>-0.571318613401244</v>
       </c>
       <c r="C98">
-        <v>-0.5757284171299659</v>
+        <v>-0.5705436899904173</v>
       </c>
       <c r="D98">
+        <v>-0.5112164090316916</v>
+      </c>
+      <c r="E98">
         <v>-0.5798519503246393</v>
       </c>
-      <c r="E98">
-        <v>-0.4603541240665531</v>
-      </c>
       <c r="F98">
+        <v>-0.5392685960225498</v>
+      </c>
+      <c r="G98">
         <v>-0.5704834343759357</v>
       </c>
-      <c r="G98">
+      <c r="H98">
+        <v>-0.4211678014335495</v>
+      </c>
+      <c r="I98">
         <v>-0.5798519506185912</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>-1.24440553</v>
       </c>
       <c r="B99">
-        <v>-1.110434356746435</v>
+        <v>-1.077652493856757</v>
       </c>
       <c r="C99">
-        <v>-1.105128659238895</v>
+        <v>-1.149618307989886</v>
       </c>
       <c r="D99">
+        <v>-1.04940361897373</v>
+      </c>
+      <c r="E99">
         <v>-1.104363128741625</v>
       </c>
-      <c r="E99">
-        <v>-0.968057624665725</v>
-      </c>
       <c r="F99">
+        <v>-1.076527023850668</v>
+      </c>
+      <c r="G99">
         <v>-1.094145661339253</v>
       </c>
-      <c r="G99">
+      <c r="H99">
+        <v>-0.8615161098028206</v>
+      </c>
+      <c r="I99">
         <v>-1.104363129148365</v>
       </c>
     </row>
-    <row r="100" spans="1:7">
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>-1.29987206</v>
       </c>
       <c r="B100">
-        <v>-0.8376804955735191</v>
+        <v>-0.812748165032388</v>
       </c>
       <c r="C100">
-        <v>-0.8365119287148995</v>
+        <v>-0.8526608872902479</v>
       </c>
       <c r="D100">
+        <v>-0.7777891185914185</v>
+      </c>
+      <c r="E100">
         <v>-0.8329970071429552</v>
       </c>
-      <c r="E100">
-        <v>-0.7087521591107856</v>
-      </c>
       <c r="F100">
+        <v>-0.7999342194309114</v>
+      </c>
+      <c r="G100">
         <v>-0.823431550142969</v>
       </c>
-      <c r="G100">
+      <c r="H100">
+        <v>-0.6355384890288269</v>
+      </c>
+      <c r="I100">
         <v>-0.8329970074857712</v>
       </c>
     </row>
-    <row r="101" spans="1:7">
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>-1.103062627</v>
       </c>
       <c r="B101">
-        <v>-0.6178623069087221</v>
+        <v>-0.6043761319684497</v>
       </c>
       <c r="C101">
-        <v>-0.619222593192978</v>
+        <v>-0.6164478505963161</v>
       </c>
       <c r="D101">
+        <v>-0.5612190488643494</v>
+      </c>
+      <c r="E101">
         <v>-0.6228193848193564</v>
       </c>
-      <c r="E101">
-        <v>-0.5101730044352552</v>
-      </c>
       <c r="F101">
+        <v>-0.5922446148363774</v>
+      </c>
+      <c r="G101">
         <v>-0.6136662325575631</v>
       </c>
-      <c r="G101">
+      <c r="H101">
+        <v>-0.4641200583466731</v>
+      </c>
+      <c r="I101">
         <v>-0.6228193851085192</v>
       </c>
     </row>
-    <row r="102" spans="1:7">
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>-2.173105618</v>
       </c>
       <c r="B102">
-        <v>-1.281014910461041</v>
+        <v>-1.104681766108969</v>
       </c>
       <c r="C102">
-        <v>-1.122521940355303</v>
+        <v>-1.339683513016767</v>
       </c>
       <c r="D102">
+        <v>-1.242766931677482</v>
+      </c>
+      <c r="E102">
         <v>-1.142046049856306</v>
       </c>
-      <c r="E102">
-        <v>-1.178750131251419</v>
-      </c>
       <c r="F102">
+        <v>-1.157779813179636</v>
+      </c>
+      <c r="G102">
         <v>-1.132913854639142</v>
       </c>
-      <c r="G102">
+      <c r="H102">
+        <v>-0.924855365649734</v>
+      </c>
+      <c r="I102">
         <v>-1.142046050203589</v>
       </c>
     </row>
-    <row r="103" spans="1:7">
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>-2.350437111</v>
       </c>
       <c r="B103">
-        <v>-1.688338737015213</v>
+        <v>-1.705441847070862</v>
       </c>
       <c r="C103">
-        <v>-1.680098988259798</v>
+        <v>-1.839831314800024</v>
       </c>
       <c r="D103">
+        <v>-1.638127018494597</v>
+      </c>
+      <c r="E103">
         <v>-1.724543384640439</v>
       </c>
-      <c r="E103">
-        <v>-1.599340023464386</v>
-      </c>
       <c r="F103">
+        <v>-1.774442223448738</v>
+      </c>
+      <c r="G103">
         <v>-1.718225169124389</v>
       </c>
-      <c r="G103">
+      <c r="H103">
+        <v>-1.444821175086736</v>
+      </c>
+      <c r="I103">
         <v>-1.724543385044724</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>-2.424850206</v>
       </c>
       <c r="B104">
-        <v>-1.962229744166325</v>
+        <v>-1.970464151781258</v>
       </c>
       <c r="C104">
-        <v>-1.926748015749585</v>
+        <v>-2.156158368715147</v>
       </c>
       <c r="D104">
+        <v>-1.895298720077673</v>
+      </c>
+      <c r="E104">
         <v>-1.982354445586124</v>
       </c>
-      <c r="E104">
-        <v>-1.869498120446872</v>
-      </c>
       <c r="F104">
+        <v>-2.050775339949804</v>
+      </c>
+      <c r="G104">
         <v>-1.977964035050277</v>
       </c>
-      <c r="G104">
+      <c r="H104">
+        <v>-1.679040521432091</v>
+      </c>
+      <c r="I104">
         <v>-1.982354446008435</v>
       </c>
     </row>
-    <row r="105" spans="1:7">
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>-1.306491488</v>
       </c>
       <c r="B105">
-        <v>-1.360965557249029</v>
+        <v>-1.390481477046013</v>
       </c>
       <c r="C105">
-        <v>-1.339983929439675</v>
+        <v>-1.469219714024966</v>
       </c>
       <c r="D105">
+        <v>-1.309940182850509</v>
+      </c>
+      <c r="E105">
         <v>-1.386599239300007</v>
       </c>
-      <c r="E105">
-        <v>-1.289636480070275</v>
-      </c>
       <c r="F105">
+        <v>-1.458410267496494</v>
+      </c>
+      <c r="G105">
         <v>-1.380394805263386</v>
       </c>
-      <c r="G105">
+      <c r="H105">
+        <v>-1.171212905566528</v>
+      </c>
+      <c r="I105">
         <v>-1.386599239611291</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>-1.203195314</v>
       </c>
       <c r="B106">
-        <v>-1.498016819252322</v>
+        <v>-1.516808794482312</v>
       </c>
       <c r="C106">
-        <v>-1.477985019986306</v>
+        <v>-1.650162693466305</v>
       </c>
       <c r="D106">
+        <v>-1.458181238982375</v>
+      </c>
+      <c r="E106">
         <v>-1.519646453144519</v>
       </c>
-      <c r="E106">
-        <v>-1.426633152014636</v>
-      </c>
       <c r="F106">
+        <v>-1.582624969959709</v>
+      </c>
+      <c r="G106">
         <v>-1.514842080624198</v>
       </c>
-      <c r="G106">
+      <c r="H106">
+        <v>-1.286383604668674</v>
+      </c>
+      <c r="I106">
         <v>-1.519646453472762</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>-0.242662172</v>
       </c>
       <c r="B107">
-        <v>-0.8038995539006607</v>
+        <v>-0.7601023612660786</v>
       </c>
       <c r="C107">
-        <v>-0.7187493142611008</v>
+        <v>-0.8380917240168164</v>
       </c>
       <c r="D107">
+        <v>-0.7600211468012269</v>
+      </c>
+      <c r="E107">
         <v>-0.7511357359960998</v>
       </c>
-      <c r="E107">
-        <v>-0.7349849571692731</v>
-      </c>
       <c r="F107">
+        <v>-0.7645501676742894</v>
+      </c>
+      <c r="G107">
         <v>-0.7429294133753512</v>
       </c>
-      <c r="G107">
+      <c r="H107">
+        <v>-0.5932621520104512</v>
+      </c>
+      <c r="I107">
         <v>-0.7511357362495299</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>0.88970951</v>
       </c>
       <c r="B108">
-        <v>0.6395002709481434</v>
+        <v>0.5261332001518829</v>
       </c>
       <c r="C108">
-        <v>0.6068169425319041</v>
+        <v>0.7101216244720217</v>
       </c>
       <c r="D108">
+        <v>0.5986419292445088</v>
+      </c>
+      <c r="E108">
         <v>0.5588543185060905</v>
       </c>
-      <c r="E108">
-        <v>0.6497348907452208</v>
-      </c>
       <c r="F108">
+        <v>0.5882406996092652</v>
+      </c>
+      <c r="G108">
         <v>0.5664075715854114</v>
       </c>
-      <c r="G108">
+      <c r="H108">
+        <v>0.5435101177857438</v>
+      </c>
+      <c r="I108">
         <v>0.5588543184346931</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>0.928446632</v>
       </c>
       <c r="B109">
-        <v>0.8283065191792156</v>
+        <v>0.715026858602251</v>
       </c>
       <c r="C109">
-        <v>0.7922545887723857</v>
+        <v>0.894038987510519</v>
       </c>
       <c r="D109">
+        <v>0.7571657738159338</v>
+      </c>
+      <c r="E109">
         <v>0.7402981936257735</v>
       </c>
-      <c r="E109">
-        <v>0.8463151077289292</v>
-      </c>
       <c r="F109">
+        <v>0.7714697408668987</v>
+      </c>
+      <c r="G109">
         <v>0.7472830818167295</v>
       </c>
-      <c r="G109">
+      <c r="H109">
+        <v>0.7148401200437899</v>
+      </c>
+      <c r="I109">
         <v>0.7402981935506654</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>1.465487602</v>
       </c>
       <c r="B110">
-        <v>1.172569208877345</v>
+        <v>1.043363399207217</v>
       </c>
       <c r="C110">
-        <v>1.13570429607349</v>
+        <v>1.223958983328773</v>
       </c>
       <c r="D110">
+        <v>1.058023587186765</v>
+      </c>
+      <c r="E110">
         <v>1.068465998491023</v>
       </c>
-      <c r="E110">
-        <v>1.18408751881741</v>
-      </c>
       <c r="F110">
+        <v>1.088764011160676</v>
+      </c>
+      <c r="G110">
         <v>1.073882592344794</v>
       </c>
-      <c r="G110">
+      <c r="H110">
+        <v>1.010965745282183</v>
+      </c>
+      <c r="I110">
         <v>1.068465998441392</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>1.784585844</v>
       </c>
       <c r="B111">
-        <v>2.028568540172345</v>
+        <v>1.759094086422345</v>
       </c>
       <c r="C111">
-        <v>1.90611299581891</v>
+        <v>2.086496486182993</v>
       </c>
       <c r="D111">
+        <v>1.795733743333386</v>
+      </c>
+      <c r="E111">
         <v>1.79605084817136</v>
       </c>
-      <c r="E111">
-        <v>1.916066441412786</v>
-      </c>
       <c r="F111">
+        <v>1.671401623200452</v>
+      </c>
+      <c r="G111">
         <v>1.796362311511524</v>
       </c>
-      <c r="G111">
+      <c r="H111">
+        <v>1.648591191282657</v>
+      </c>
+      <c r="I111">
         <v>1.796050848214986</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
+    <row r="112" spans="1:9">
       <c r="A112">
         <v>1.858495744</v>
       </c>
       <c r="B112">
-        <v>2.135366112376137</v>
+        <v>1.986288913202365</v>
       </c>
       <c r="C112">
-        <v>2.125843196363988</v>
+        <v>2.272608756993793</v>
       </c>
       <c r="D112">
+        <v>2.033901734678772</v>
+      </c>
+      <c r="E112">
         <v>2.022043629584652</v>
       </c>
-      <c r="E112">
-        <v>2.147714925223933</v>
-      </c>
       <c r="F112">
+        <v>1.879156717969135</v>
+      </c>
+      <c r="G112">
         <v>2.018303831510739</v>
       </c>
-      <c r="G112">
+      <c r="H112">
+        <v>1.85303216817132</v>
+      </c>
+      <c r="I112">
         <v>2.022043629645867</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
+    <row r="113" spans="1:9">
       <c r="A113">
         <v>1.493374882</v>
       </c>
       <c r="B113">
-        <v>1.727274357233876</v>
+        <v>1.633793595470636</v>
       </c>
       <c r="C113">
-        <v>1.735858979705246</v>
+        <v>1.816504040063443</v>
       </c>
       <c r="D113">
+        <v>1.629527478899833</v>
+      </c>
+      <c r="E113">
         <v>1.661105722788625</v>
       </c>
-      <c r="E113">
-        <v>1.78991428065638</v>
-      </c>
       <c r="F113">
+        <v>1.561988397409557</v>
+      </c>
+      <c r="G113">
         <v>1.660881359604276</v>
       </c>
-      <c r="G113">
+      <c r="H113">
+        <v>1.537741246222306</v>
+      </c>
+      <c r="I113">
         <v>1.661105722797409</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:9">
       <c r="A114">
         <v>1.412473281</v>
       </c>
       <c r="B114">
-        <v>1.537437426577907</v>
+        <v>1.364566122227166</v>
       </c>
       <c r="C114">
-        <v>1.46716898915751</v>
+        <v>1.602052739865078</v>
       </c>
       <c r="D114">
+        <v>1.379584160771745</v>
+      </c>
+      <c r="E114">
         <v>1.397707405657291</v>
       </c>
-      <c r="E114">
-        <v>1.511692603502842</v>
-      </c>
       <c r="F114">
+        <v>1.259359498391955</v>
+      </c>
+      <c r="G114">
         <v>1.401523575200947</v>
       </c>
-      <c r="G114">
+      <c r="H114">
+        <v>1.288811563641993</v>
+      </c>
+      <c r="I114">
         <v>1.397707405665245</v>
       </c>
     </row>
-    <row r="115" spans="1:7">
+    <row r="115" spans="1:9">
       <c r="A115">
         <v>1.659878719</v>
       </c>
       <c r="B115">
-        <v>1.824214857598848</v>
+        <v>1.593417786594298</v>
       </c>
       <c r="C115">
-        <v>1.740873904788975</v>
+        <v>1.963764857165431</v>
       </c>
       <c r="D115">
+        <v>1.641697710826514</v>
+      </c>
+      <c r="E115">
         <v>1.643132332027545</v>
       </c>
-      <c r="E115">
-        <v>1.737399021236595</v>
-      </c>
       <c r="F115">
+        <v>1.444224059953203</v>
+      </c>
+      <c r="G115">
         <v>1.646602793141476</v>
       </c>
-      <c r="G115">
+      <c r="H115">
+        <v>1.48625147446081</v>
+      </c>
+      <c r="I115">
         <v>1.643132332107263</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
+    <row r="116" spans="1:9">
       <c r="A116">
         <v>1.179616332</v>
       </c>
       <c r="B116">
-        <v>2.115863261809586</v>
+        <v>1.851088895248443</v>
       </c>
       <c r="C116">
-        <v>2.027509186796824</v>
+        <v>2.302975452684637</v>
       </c>
       <c r="D116">
+        <v>1.918217217504916</v>
+      </c>
+      <c r="E116">
         <v>1.909116284741865</v>
       </c>
-      <c r="E116">
-        <v>1.997083854490266</v>
-      </c>
       <c r="F116">
+        <v>1.671590149378062</v>
+      </c>
+      <c r="G116">
         <v>1.91135291919318</v>
       </c>
-      <c r="G116">
+      <c r="H116">
+        <v>1.714905248512764</v>
+      </c>
+      <c r="I116">
         <v>1.909116284868325</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:9">
       <c r="A117">
         <v>1.233273608</v>
       </c>
       <c r="B117">
-        <v>1.672125555500061</v>
+        <v>1.452977778853456</v>
       </c>
       <c r="C117">
-        <v>1.606291209254615</v>
+        <v>1.752559573469062</v>
       </c>
       <c r="D117">
+        <v>1.512735685314554</v>
+      </c>
+      <c r="E117">
         <v>1.50787623531752</v>
       </c>
-      <c r="E117">
-        <v>1.586748936092939</v>
-      </c>
       <c r="F117">
+        <v>1.393669855896711</v>
+      </c>
+      <c r="G117">
         <v>1.512334142838913</v>
       </c>
-      <c r="G117">
+      <c r="H117">
+        <v>1.359101256546164</v>
+      </c>
+      <c r="I117">
         <v>1.507876235403809</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
+    <row r="118" spans="1:9">
       <c r="A118">
         <v>0.743599215</v>
       </c>
       <c r="B118">
-        <v>1.208669827875072</v>
+        <v>1.036845176392142</v>
       </c>
       <c r="C118">
-        <v>1.15595093338532</v>
+        <v>1.286885115844429</v>
       </c>
       <c r="D118">
+        <v>1.102260660431728</v>
+      </c>
+      <c r="E118">
         <v>1.083259335894626</v>
       </c>
-      <c r="E118">
-        <v>1.162817499962959</v>
-      </c>
       <c r="F118">
+        <v>1.019686208665958</v>
+      </c>
+      <c r="G118">
         <v>1.089361669909497</v>
       </c>
-      <c r="G118">
+      <c r="H118">
+        <v>0.9873901934007278</v>
+      </c>
+      <c r="I118">
         <v>1.083259335922611</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
+    <row r="119" spans="1:9">
       <c r="A119">
         <v>1.229907731</v>
       </c>
       <c r="B119">
-        <v>1.283067046252492</v>
+        <v>1.093629762597794</v>
       </c>
       <c r="C119">
-        <v>1.225685508191907</v>
+        <v>1.366685105129779</v>
       </c>
       <c r="D119">
+        <v>1.161903409921187</v>
+      </c>
+      <c r="E119">
         <v>1.142610658104446</v>
       </c>
-      <c r="E119">
-        <v>1.226526664954339</v>
-      </c>
       <c r="F119">
+        <v>1.084217277473481</v>
+      </c>
+      <c r="G119">
         <v>1.149068638148797</v>
       </c>
-      <c r="G119">
+      <c r="H119">
+        <v>1.043904741456621</v>
+      </c>
+      <c r="I119">
         <v>1.142610658131205</v>
       </c>
     </row>
-    <row r="120" spans="1:7">
+    <row r="120" spans="1:9">
       <c r="A120">
         <v>2.403226273</v>
       </c>
       <c r="B120">
-        <v>2.296518116061469</v>
+        <v>2.008264512686049</v>
       </c>
       <c r="C120">
-        <v>2.214592480276035</v>
+        <v>2.452754048250781</v>
       </c>
       <c r="D120">
+        <v>2.109286432981188</v>
+      </c>
+      <c r="E120">
         <v>2.066935217760181</v>
       </c>
-      <c r="E120">
-        <v>2.146182230203932</v>
-      </c>
       <c r="F120">
+        <v>1.886115504459864</v>
+      </c>
+      <c r="G120">
         <v>2.066846018175448</v>
       </c>
-      <c r="G120">
+      <c r="H120">
+        <v>1.851508523094737</v>
+      </c>
+      <c r="I120">
         <v>2.066935217918162</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
+    <row r="121" spans="1:9">
       <c r="A121">
         <v>2.059121985</v>
       </c>
       <c r="B121">
-        <v>2.096798439286496</v>
+        <v>1.839063954208887</v>
       </c>
       <c r="C121">
-        <v>2.019270836630013</v>
+        <v>2.239252286469036</v>
       </c>
       <c r="D121">
+        <v>1.909202029214287</v>
+      </c>
+      <c r="E121">
         <v>1.887492339405723</v>
       </c>
-      <c r="E121">
-        <v>1.985863820296708</v>
-      </c>
       <c r="F121">
+        <v>1.739878254928009</v>
+      </c>
+      <c r="G121">
         <v>1.888295770945178</v>
       </c>
-      <c r="G121">
+      <c r="H121">
+        <v>1.710238395710008</v>
+      </c>
+      <c r="I121">
         <v>1.88749233950323</v>
       </c>
     </row>
-    <row r="122" spans="1:7">
+    <row r="122" spans="1:9">
       <c r="A122">
         <v>1.874258274</v>
       </c>
       <c r="B122">
-        <v>1.798620039185723</v>
+        <v>1.59875996214536</v>
       </c>
       <c r="C122">
-        <v>1.740463431710415</v>
+        <v>1.868254004746939</v>
       </c>
       <c r="D122">
+        <v>1.626011936805583</v>
+      </c>
+      <c r="E122">
         <v>1.634972168371021</v>
       </c>
-      <c r="E122">
-        <v>1.749412386251562</v>
-      </c>
       <c r="F122">
+        <v>1.563125637165057</v>
+      </c>
+      <c r="G122">
         <v>1.636982917218657</v>
       </c>
-      <c r="G122">
+      <c r="H122">
+        <v>1.504557909484309</v>
+      </c>
+      <c r="I122">
         <v>1.634972168401707</v>
       </c>
     </row>
-    <row r="123" spans="1:7">
+    <row r="123" spans="1:9">
       <c r="A123">
         <v>1.208393848</v>
       </c>
       <c r="B123">
-        <v>1.352287251726469</v>
+        <v>1.208731343050896</v>
       </c>
       <c r="C123">
-        <v>1.307649702270941</v>
+        <v>1.403267961152921</v>
       </c>
       <c r="D123">
+        <v>1.212861716683572</v>
+      </c>
+      <c r="E123">
         <v>1.233762083980019</v>
       </c>
-      <c r="E123">
-        <v>1.356698973565018</v>
-      </c>
       <c r="F123">
+        <v>1.221440408119267</v>
+      </c>
+      <c r="G123">
         <v>1.238220192354619</v>
       </c>
-      <c r="G123">
+      <c r="H123">
+        <v>1.160284036684273</v>
+      </c>
+      <c r="I123">
         <v>1.233762083940512</v>
       </c>
     </row>
-    <row r="124" spans="1:7">
+    <row r="124" spans="1:9">
       <c r="A124">
         <v>1.542184756</v>
       </c>
       <c r="B124">
-        <v>1.541875745540783</v>
+        <v>1.365861844928343</v>
       </c>
       <c r="C124">
-        <v>1.456300095576816</v>
+        <v>1.5025847629144</v>
       </c>
       <c r="D124">
+        <v>1.349501427040989</v>
+      </c>
+      <c r="E124">
         <v>1.387495609413965</v>
       </c>
-      <c r="E124">
-        <v>1.511463403038547</v>
-      </c>
       <c r="F124">
+        <v>1.376733040570663</v>
+      </c>
+      <c r="G124">
         <v>1.389495505941933</v>
       </c>
-      <c r="G124">
+      <c r="H124">
+        <v>1.297504196947543</v>
+      </c>
+      <c r="I124">
         <v>1.387495609391317</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:9">
       <c r="A125">
         <v>1.314560082</v>
       </c>
       <c r="B125">
-        <v>1.496341037061671</v>
+        <v>1.32427516767688</v>
       </c>
       <c r="C125">
-        <v>1.404180153389242</v>
+        <v>1.453516043511358</v>
       </c>
       <c r="D125">
+        <v>1.304897026365794</v>
+      </c>
+      <c r="E125">
         <v>1.3447286678433</v>
       </c>
-      <c r="E125">
-        <v>1.470549387928561</v>
-      </c>
       <c r="F125">
+        <v>1.310278859619054</v>
+      </c>
+      <c r="G125">
         <v>1.346954122646961</v>
       </c>
-      <c r="G125">
+      <c r="H125">
+        <v>1.259203153763837</v>
+      </c>
+      <c r="I125">
         <v>1.344728667814019</v>
       </c>
     </row>
-    <row r="126" spans="1:7">
+    <row r="126" spans="1:9">
       <c r="A126">
         <v>-1.001923586</v>
       </c>
       <c r="B126">
-        <v>-0.6966382766806104</v>
+        <v>-0.6878085283320826</v>
       </c>
       <c r="C126">
-        <v>-0.6854405648982729</v>
+        <v>-0.6974110814939558</v>
       </c>
       <c r="D126">
+        <v>-0.6485415986237547</v>
+      </c>
+      <c r="E126">
         <v>-0.7035229935345015</v>
       </c>
-      <c r="E126">
-        <v>-0.6066763399530221</v>
-      </c>
       <c r="F126">
+        <v>-0.6969943775808805</v>
+      </c>
+      <c r="G126">
         <v>-0.6942373798650625</v>
       </c>
-      <c r="G126">
+      <c r="H126">
+        <v>-0.5448026040519143</v>
+      </c>
+      <c r="I126">
         <v>-0.7035229938155736</v>
       </c>
     </row>
-    <row r="127" spans="1:7">
+    <row r="127" spans="1:9">
       <c r="A127">
         <v>0.304133877</v>
       </c>
       <c r="B127">
-        <v>0.6969684195469178</v>
+        <v>0.5749386973426083</v>
       </c>
       <c r="C127">
-        <v>0.6592996865164739</v>
+        <v>0.7789762418479096</v>
       </c>
       <c r="D127">
+        <v>0.6477689642656012</v>
+      </c>
+      <c r="E127">
         <v>0.60661492675691</v>
       </c>
-      <c r="E127">
-        <v>0.6977988594083938</v>
-      </c>
       <c r="F127">
+        <v>0.5901801276701386</v>
+      </c>
+      <c r="G127">
         <v>0.6144762769778932</v>
       </c>
-      <c r="G127">
+      <c r="H127">
+        <v>0.580460897756422</v>
+      </c>
+      <c r="I127">
         <v>0.6066149266967387</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:9">
       <c r="A128">
         <v>0.17850123</v>
       </c>
       <c r="B128">
-        <v>0.3870208026644522</v>
+        <v>0.2767206771640464</v>
       </c>
       <c r="C128">
-        <v>0.361788663415281</v>
+        <v>0.4780752540758947</v>
       </c>
       <c r="D128">
+        <v>0.3765934037335013</v>
+      </c>
+      <c r="E128">
         <v>0.3120529816849461</v>
       </c>
-      <c r="E128">
-        <v>0.3937579367386552</v>
-      </c>
       <c r="F128">
+        <v>0.3103700477574086</v>
+      </c>
+      <c r="G128">
         <v>0.3206910392671689</v>
       </c>
-      <c r="G128">
+      <c r="H128">
+        <v>0.3166935650678886</v>
+      </c>
+      <c r="I128">
         <v>0.3120529815993335</v>
       </c>
     </row>
-    <row r="129" spans="1:7">
+    <row r="129" spans="1:9">
       <c r="A129">
         <v>1.063120745</v>
       </c>
       <c r="B129">
-        <v>1.028086569253893</v>
+        <v>0.8683248649028115</v>
       </c>
       <c r="C129">
-        <v>0.9823511166820703</v>
+        <v>1.109651928011677</v>
       </c>
       <c r="D129">
+        <v>0.9468589794676451</v>
+      </c>
+      <c r="E129">
         <v>0.9148504512832006</v>
       </c>
-      <c r="E129">
-        <v>0.99163045731577</v>
-      </c>
       <c r="F129">
+        <v>0.8819931068323763</v>
+      </c>
+      <c r="G129">
         <v>0.9216141888478964</v>
       </c>
-      <c r="G129">
+      <c r="H129">
+        <v>0.8390493429228734</v>
+      </c>
+      <c r="I129">
         <v>0.9148504512920095</v>
       </c>
     </row>
-    <row r="130" spans="1:7">
+    <row r="130" spans="1:9">
       <c r="A130">
         <v>0.464528379</v>
       </c>
       <c r="B130">
-        <v>0.6078970742642339</v>
+        <v>0.4894483221407623</v>
       </c>
       <c r="C130">
-        <v>0.5775309502014432</v>
+        <v>0.6914156846264401</v>
       </c>
       <c r="D130">
+        <v>0.5788448195264012</v>
+      </c>
+      <c r="E130">
         <v>0.5272008189223751</v>
       </c>
-      <c r="E130">
-        <v>0.6033653192142765</v>
-      </c>
       <c r="F130">
+        <v>0.5209240763436908</v>
+      </c>
+      <c r="G130">
         <v>0.5346758451963983</v>
       </c>
-      <c r="G130">
+      <c r="H130">
+        <v>0.5002099726818596</v>
+      </c>
+      <c r="I130">
         <v>0.5272008188777705</v>
       </c>
     </row>
-    <row r="131" spans="1:7">
+    <row r="131" spans="1:9">
       <c r="A131">
         <v>0.740267424</v>
       </c>
       <c r="B131">
-        <v>1.229167782790667</v>
+        <v>1.045443299900853</v>
       </c>
       <c r="C131">
-        <v>1.173784075884521</v>
+        <v>1.312194031743066</v>
       </c>
       <c r="D131">
+        <v>1.114999321265249</v>
+      </c>
+      <c r="E131">
         <v>1.093562624529464</v>
       </c>
-      <c r="E131">
-        <v>1.177606639695504</v>
-      </c>
       <c r="F131">
+        <v>1.042364817973388</v>
+      </c>
+      <c r="G131">
         <v>1.100196062517354</v>
       </c>
-      <c r="G131">
+      <c r="H131">
+        <v>1.001218393185614</v>
+      </c>
+      <c r="I131">
         <v>1.093562624549153</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:9">
       <c r="A132">
         <v>0.991836694</v>
       </c>
       <c r="B132">
-        <v>1.598681530674912</v>
+        <v>1.39471074261793</v>
       </c>
       <c r="C132">
-        <v>1.540702752297236</v>
+        <v>1.664352502146746</v>
       </c>
       <c r="D132">
+        <v>1.449104424202864</v>
+      </c>
+      <c r="E132">
         <v>1.442758347233725</v>
       </c>
-      <c r="E132">
-        <v>1.526769907238487</v>
-      </c>
       <c r="F132">
+        <v>1.383269251727831</v>
+      </c>
+      <c r="G132">
         <v>1.446706624823081</v>
       </c>
-      <c r="G132">
+      <c r="H132">
+        <v>1.309783162628178</v>
+      </c>
+      <c r="I132">
         <v>1.442758347297661</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:9">
       <c r="A133">
         <v>-0.037111578</v>
       </c>
       <c r="B133">
-        <v>0.6072637932384076</v>
+        <v>0.5134621859815599</v>
       </c>
       <c r="C133">
-        <v>0.5764534245432893</v>
+        <v>0.6739580777047121</v>
       </c>
       <c r="D133">
+        <v>0.562621573841618</v>
+      </c>
+      <c r="E133">
         <v>0.5344371984189857</v>
       </c>
-      <c r="E133">
-        <v>0.6418902694720925</v>
-      </c>
       <c r="F133">
+        <v>0.5782876576698686</v>
+      </c>
+      <c r="G133">
         <v>0.5421173025151302</v>
       </c>
-      <c r="G133">
+      <c r="H133">
+        <v>0.5364467205773693</v>
+      </c>
+      <c r="I133">
         <v>0.534437198312335</v>
       </c>
     </row>
-    <row r="134" spans="1:7">
+    <row r="134" spans="1:9">
       <c r="A134">
         <v>0.623458544</v>
       </c>
       <c r="B134">
-        <v>0.8986143343188445</v>
+        <v>0.7945392051939837</v>
       </c>
       <c r="C134">
-        <v>0.867577229014723</v>
+        <v>0.9547693986501624</v>
       </c>
       <c r="D134">
+        <v>0.8169149104393525</v>
+      </c>
+      <c r="E134">
         <v>0.8147706789823612</v>
       </c>
-      <c r="E134">
-        <v>0.9310809303485412</v>
-      </c>
       <c r="F134">
+        <v>0.8608069910223293</v>
+      </c>
+      <c r="G134">
         <v>0.8213555166819784</v>
       </c>
-      <c r="G134">
+      <c r="H134">
+        <v>0.790134139058615</v>
+      </c>
+      <c r="I134">
         <v>0.8147706788962431</v>
       </c>
     </row>
-    <row r="135" spans="1:7">
+    <row r="135" spans="1:9">
       <c r="A135">
         <v>0.08882322099999999</v>
       </c>
       <c r="B135">
-        <v>0.6362090794521565</v>
+        <v>0.5577298138701712</v>
       </c>
       <c r="C135">
-        <v>0.6092456956756687</v>
+        <v>0.6983322520924571</v>
       </c>
       <c r="D135">
+        <v>0.581962711940884</v>
+      </c>
+      <c r="E135">
         <v>0.5693298554643941</v>
       </c>
-      <c r="E135">
-        <v>0.6964657399674843</v>
-      </c>
       <c r="F135">
+        <v>0.6302438694099107</v>
+      </c>
+      <c r="G135">
         <v>0.5772061284748612</v>
       </c>
-      <c r="G135">
+      <c r="H135">
+        <v>0.5841339056685169</v>
+      </c>
+      <c r="I135">
         <v>0.5693298553245139</v>
       </c>
     </row>
-    <row r="136" spans="1:7">
+    <row r="136" spans="1:9">
       <c r="A136">
         <v>0.116119944</v>
       </c>
       <c r="B136">
-        <v>0.3294291902216974</v>
+        <v>0.2882216350873175</v>
       </c>
       <c r="C136">
-        <v>0.3119763715704748</v>
+        <v>0.3785865458044638</v>
       </c>
       <c r="D136">
+        <v>0.3141119667870305</v>
+      </c>
+      <c r="E136">
         <v>0.2895473773299784</v>
       </c>
-      <c r="E136">
-        <v>0.4132712384330548</v>
-      </c>
       <c r="F136">
+        <v>0.3676336302610863</v>
+      </c>
+      <c r="G136">
         <v>0.2974971769876243</v>
       </c>
-      <c r="G136">
+      <c r="H136">
+        <v>0.3390741186318856</v>
+      </c>
+      <c r="I136">
         <v>0.2895473771553809</v>
       </c>
     </row>
-    <row r="137" spans="1:7">
+    <row r="137" spans="1:9">
       <c r="A137">
         <v>0.037484165</v>
       </c>
       <c r="B137">
-        <v>-0.1226310932253565</v>
+        <v>-0.1370424556057754</v>
       </c>
       <c r="C137">
-        <v>-0.1351340975547272</v>
+        <v>-0.08741650583149783</v>
       </c>
       <c r="D137">
+        <v>-0.1003255208976858</v>
+      </c>
+      <c r="E137">
         <v>-0.1454423726014946</v>
       </c>
-      <c r="E137">
-        <v>-0.02924345854463026</v>
-      </c>
       <c r="F137">
+        <v>-0.08975336647095378</v>
+      </c>
+      <c r="G137">
         <v>-0.1368156822683451</v>
       </c>
-      <c r="G137">
+      <c r="H137">
+        <v>-0.0474751702948655</v>
+      </c>
+      <c r="I137">
         <v>-0.1454423728230009</v>
       </c>
     </row>
-    <row r="138" spans="1:7">
+    <row r="138" spans="1:9">
       <c r="A138">
         <v>0.468701595</v>
       </c>
       <c r="B138">
-        <v>0.2438751146211763</v>
+        <v>0.1852220074236116</v>
       </c>
       <c r="C138">
-        <v>0.2205344162362814</v>
+        <v>0.3028475840607985</v>
       </c>
       <c r="D138">
+        <v>0.2364054822584766</v>
+      </c>
+      <c r="E138">
         <v>0.191765182062858</v>
       </c>
-      <c r="E138">
-        <v>0.2999994604651242</v>
-      </c>
       <c r="F138">
+        <v>0.2181652479401538</v>
+      </c>
+      <c r="G138">
         <v>0.2001269869987828</v>
       </c>
-      <c r="G138">
+      <c r="H138">
+        <v>0.2345887603104564</v>
+      </c>
+      <c r="I138">
         <v>0.1917651819098371</v>
       </c>
     </row>

--- a/table_best_models____spi-6__test.xlsx
+++ b/table_best_models____spi-6__test.xlsx
@@ -19,22 +19,22 @@
     <t>Observed</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $0.0) ($\beta = $0.0)</t>
+    <t>Lasso ($\beta = $0.0)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $0.1) ($\beta = $0.1)</t>
+    <t>Lasso ($\beta = $0.1)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $0.5) ($\beta = $0.5)</t>
+    <t>Lasso ($\beta = $0.5)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $1.0) ($\beta = $1.0)</t>
+    <t>Lasso ($\beta = $1.0)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $1.5) ($\beta = $1.5)</t>
+    <t>Lasso ($\beta = $1.5)</t>
   </si>
   <si>
-    <t>Lasso ($\beta = $2.0) ($\beta = $2.0)</t>
+    <t>Lasso ($\beta = $2.0)</t>
   </si>
 </sst>
 </file>
